--- a/Python/output/synthetic/FAresults-cutsharing.xlsx
+++ b/Python/output/synthetic/FAresults-cutsharing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/synthetic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4485B2-03E3-3A43-9C6E-33DE088E5F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C1DA02F5-DB4A-A04B-ACB9-43EFE5861F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="5200" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{F4B921D5-876A-DB47-B723-44565D89F8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="FAresults-cutsharing" sheetId="1" r:id="rId1"/>
@@ -73,26 +73,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -100,7 +100,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,7 +108,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,35 +116,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -152,7 +152,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -160,14 +160,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -175,14 +175,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -190,7 +190,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -198,14 +198,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -622,39 +622,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -706,7 +706,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -817,13 +817,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -832,6 +825,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -896,28 +896,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4C9ADF-43A8-C840-954A-44FCF844F852}">
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1901,22 +1918,22 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1838.1298495297101</v>
+        <v>1838.12985</v>
       </c>
       <c r="L22">
         <v>14425</v>
       </c>
       <c r="M22">
-        <v>65326.3626451487</v>
+        <v>65326.362650000003</v>
       </c>
       <c r="N22">
-        <v>7000.5981005990998</v>
+        <v>7000.5981009999996</v>
       </c>
       <c r="O22">
-        <v>799.65979599952698</v>
+        <v>799.65979600000003</v>
       </c>
       <c r="P22">
-        <v>0.54915618896484297</v>
+        <v>0.54915618899999996</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1951,22 +1968,1722 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>1866.22240496975</v>
+        <v>1866.222405</v>
       </c>
       <c r="L23">
         <v>1319</v>
       </c>
       <c r="M23">
-        <v>65348.583695225097</v>
+        <v>65348.583700000003</v>
       </c>
       <c r="N23">
-        <v>7003.6638287376099</v>
+        <v>7003.6638290000001</v>
       </c>
       <c r="O23">
-        <v>411.974531888961</v>
+        <v>411.97453189999999</v>
       </c>
       <c r="P23">
-        <v>1.64447617530822</v>
+        <v>1.6444761750000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>57</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2936.6182560000002</v>
+      </c>
+      <c r="L24">
+        <v>11273</v>
+      </c>
+      <c r="M24">
+        <v>68069.381359999999</v>
+      </c>
+      <c r="N24">
+        <v>7181.5407789999999</v>
+      </c>
+      <c r="O24">
+        <v>636.90328190000002</v>
+      </c>
+      <c r="P24">
+        <v>0.55519795400000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>57</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>3003.95496</v>
+      </c>
+      <c r="L25">
+        <v>1346</v>
+      </c>
+      <c r="M25">
+        <v>68721.671870000006</v>
+      </c>
+      <c r="N25">
+        <v>7186.335986</v>
+      </c>
+      <c r="O25">
+        <v>329.13315080000001</v>
+      </c>
+      <c r="P25">
+        <v>1.1649761199999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>57</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>5847.1416570000001</v>
+      </c>
+      <c r="L26">
+        <v>15253</v>
+      </c>
+      <c r="M26">
+        <v>74913.144469999999</v>
+      </c>
+      <c r="N26">
+        <v>7579.9912729999996</v>
+      </c>
+      <c r="O26">
+        <v>886.83198830000003</v>
+      </c>
+      <c r="P26">
+        <v>0.57710099199999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>57</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>5949.6770450000004</v>
+      </c>
+      <c r="L27">
+        <v>1064</v>
+      </c>
+      <c r="M27">
+        <v>81450.097559999995</v>
+      </c>
+      <c r="N27">
+        <v>7784.2198440000002</v>
+      </c>
+      <c r="O27">
+        <v>250.36078789999999</v>
+      </c>
+      <c r="P27">
+        <v>1.0227770810000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>57</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>3339.0862244623199</v>
+      </c>
+      <c r="L28">
+        <v>16526</v>
+      </c>
+      <c r="M28">
+        <v>130710.226791803</v>
+      </c>
+      <c r="N28">
+        <v>13487.372990363499</v>
+      </c>
+      <c r="O28">
+        <v>1039.2628529071801</v>
+      </c>
+      <c r="P28">
+        <v>0.62824487686157204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>57</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>3378.59243179654</v>
+      </c>
+      <c r="L29">
+        <v>1060</v>
+      </c>
+      <c r="M29">
+        <v>130714.64745188699</v>
+      </c>
+      <c r="N29">
+        <v>13487.9944975831</v>
+      </c>
+      <c r="O29">
+        <v>246.765195131301</v>
+      </c>
+      <c r="P29">
+        <v>1.09134101867675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>57</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>0.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>5454.964696</v>
+      </c>
+      <c r="L30">
+        <v>15004</v>
+      </c>
+      <c r="M30">
+        <v>136545.11199999999</v>
+      </c>
+      <c r="N30">
+        <v>13850.97099</v>
+      </c>
+      <c r="O30">
+        <v>1057.6004029999999</v>
+      </c>
+      <c r="P30">
+        <v>0.72658705700000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>5519.4289330000001</v>
+      </c>
+      <c r="L31">
+        <v>834</v>
+      </c>
+      <c r="M31">
+        <v>137549.4252</v>
+      </c>
+      <c r="N31">
+        <v>13852.37262</v>
+      </c>
+      <c r="O31">
+        <v>189.37044309999999</v>
+      </c>
+      <c r="P31">
+        <v>0.68263792999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>57</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>11032.75325</v>
+      </c>
+      <c r="L32">
+        <v>11646</v>
+      </c>
+      <c r="M32">
+        <v>150679.47839999999</v>
+      </c>
+      <c r="N32">
+        <v>14632.796829999999</v>
+      </c>
+      <c r="O32">
+        <v>809.09585519999996</v>
+      </c>
+      <c r="P32">
+        <v>0.99220109000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>57</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>11318.36217</v>
+      </c>
+      <c r="L33">
+        <v>785</v>
+      </c>
+      <c r="M33">
+        <v>162062.2524</v>
+      </c>
+      <c r="N33">
+        <v>15021.633620000001</v>
+      </c>
+      <c r="O33">
+        <v>183.32869890000001</v>
+      </c>
+      <c r="P33">
+        <v>0.77987885499999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>57</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>5175.8750179999997</v>
+      </c>
+      <c r="L34">
+        <v>13566</v>
+      </c>
+      <c r="M34">
+        <v>195821.91099999999</v>
+      </c>
+      <c r="N34">
+        <v>19976.407800000001</v>
+      </c>
+      <c r="O34">
+        <v>997.10074280000003</v>
+      </c>
+      <c r="P34">
+        <v>1.154596806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>57</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>5255.1838189999999</v>
+      </c>
+      <c r="L35">
+        <v>1011</v>
+      </c>
+      <c r="M35">
+        <v>195870.0215</v>
+      </c>
+      <c r="N35">
+        <v>19986.939729999998</v>
+      </c>
+      <c r="O35">
+        <v>242.02219769999999</v>
+      </c>
+      <c r="P35">
+        <v>0.81650471700000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>57</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>30</v>
+      </c>
+      <c r="H36">
+        <v>0.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>8368.2806550000005</v>
+      </c>
+      <c r="L36">
+        <v>14165</v>
+      </c>
+      <c r="M36">
+        <v>204352.4866</v>
+      </c>
+      <c r="N36">
+        <v>20593.657060000001</v>
+      </c>
+      <c r="O36">
+        <v>1131.0296900000001</v>
+      </c>
+      <c r="P36">
+        <v>1.6769528389999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>57</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>0.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>8454.5544699999991</v>
+      </c>
+      <c r="L37">
+        <v>1547</v>
+      </c>
+      <c r="M37">
+        <v>206047.26120000001</v>
+      </c>
+      <c r="N37">
+        <v>20576.47697</v>
+      </c>
+      <c r="O37">
+        <v>428.30962899999997</v>
+      </c>
+      <c r="P37">
+        <v>0.91889595999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>57</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>16747.094260000002</v>
+      </c>
+      <c r="L38">
+        <v>21431</v>
+      </c>
+      <c r="M38">
+        <v>226062.17939999999</v>
+      </c>
+      <c r="N38">
+        <v>21884.979240000001</v>
+      </c>
+      <c r="O38">
+        <v>1778.1165189999999</v>
+      </c>
+      <c r="P38">
+        <v>1.345211744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>57</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>16899.02506</v>
+      </c>
+      <c r="L39">
+        <v>1131</v>
+      </c>
+      <c r="M39">
+        <v>244016.93119999999</v>
+      </c>
+      <c r="N39">
+        <v>22467.056809999998</v>
+      </c>
+      <c r="O39">
+        <v>293.83375189999998</v>
+      </c>
+      <c r="P39">
+        <v>0.61452317199999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>57</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1776.21498</v>
+      </c>
+      <c r="L40">
+        <v>12548</v>
+      </c>
+      <c r="M40">
+        <v>65342.28944</v>
+      </c>
+      <c r="N40">
+        <v>7005.2295860000004</v>
+      </c>
+      <c r="O40">
+        <v>816.08924009999998</v>
+      </c>
+      <c r="P40">
+        <v>1.1335918899999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>57</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1808.513066</v>
+      </c>
+      <c r="L41">
+        <v>1016</v>
+      </c>
+      <c r="M41">
+        <v>65349.236320000004</v>
+      </c>
+      <c r="N41">
+        <v>7006.2968170000004</v>
+      </c>
+      <c r="O41">
+        <v>298.55551100000002</v>
+      </c>
+      <c r="P41">
+        <v>0.71214222900000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>57</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>0.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>2952.7039799999998</v>
+      </c>
+      <c r="L42">
+        <v>16266</v>
+      </c>
+      <c r="M42">
+        <v>68160.411070000002</v>
+      </c>
+      <c r="N42">
+        <v>7192.6782059999996</v>
+      </c>
+      <c r="O42">
+        <v>1182.4377260000001</v>
+      </c>
+      <c r="P42">
+        <v>1.5713529589999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>57</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>0.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>2979.5718010000001</v>
+      </c>
+      <c r="L43">
+        <v>1657</v>
+      </c>
+      <c r="M43">
+        <v>68651.480410000004</v>
+      </c>
+      <c r="N43">
+        <v>7192.5016089999999</v>
+      </c>
+      <c r="O43">
+        <v>537.31948179999995</v>
+      </c>
+      <c r="P43">
+        <v>0.69591784499999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>57</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>5917.7665340000003</v>
+      </c>
+      <c r="L44">
+        <v>16253</v>
+      </c>
+      <c r="M44">
+        <v>74834.947480000003</v>
+      </c>
+      <c r="N44">
+        <v>7569.6149649999998</v>
+      </c>
+      <c r="O44">
+        <v>1209.0373039999999</v>
+      </c>
+      <c r="P44">
+        <v>1.105711699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>57</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>6017.4192720000001</v>
+      </c>
+      <c r="L45">
+        <v>800</v>
+      </c>
+      <c r="M45">
+        <v>81024.082689999996</v>
+      </c>
+      <c r="N45">
+        <v>7740.0884219999998</v>
+      </c>
+      <c r="O45">
+        <v>228.08957599999999</v>
+      </c>
+      <c r="P45">
+        <v>0.74306726499999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>57</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>3317.8923159999999</v>
+      </c>
+      <c r="L46">
+        <v>15163</v>
+      </c>
+      <c r="M46">
+        <v>130719.91929999999</v>
+      </c>
+      <c r="N46">
+        <v>13488.16697</v>
+      </c>
+      <c r="O46">
+        <v>1184.6953450000001</v>
+      </c>
+      <c r="P46">
+        <v>2.1333391669999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>57</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>3359.0684670000001</v>
+      </c>
+      <c r="L47">
+        <v>1805</v>
+      </c>
+      <c r="M47">
+        <v>130739.86500000001</v>
+      </c>
+      <c r="N47">
+        <v>13491.636039999999</v>
+      </c>
+      <c r="O47">
+        <v>616.44342710000001</v>
+      </c>
+      <c r="P47">
+        <v>0.86595892900000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>57</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <v>0.5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>5481.559929</v>
+      </c>
+      <c r="L48">
+        <v>16858</v>
+      </c>
+      <c r="M48">
+        <v>136453.45610000001</v>
+      </c>
+      <c r="N48">
+        <v>13858.19364</v>
+      </c>
+      <c r="O48">
+        <v>1486.3668580000001</v>
+      </c>
+      <c r="P48">
+        <v>1.70206809</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>57</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="H49">
+        <v>0.5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>5537.6078559999996</v>
+      </c>
+      <c r="L49">
+        <v>1564</v>
+      </c>
+      <c r="M49">
+        <v>137577.81630000001</v>
+      </c>
+      <c r="N49">
+        <v>13857.57043</v>
+      </c>
+      <c r="O49">
+        <v>524.87840600000004</v>
+      </c>
+      <c r="P49">
+        <v>0.85755085900000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>57</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>11188.234200000001</v>
+      </c>
+      <c r="L50">
+        <v>17736</v>
+      </c>
+      <c r="M50">
+        <v>149407.81049999999</v>
+      </c>
+      <c r="N50">
+        <v>14592.51204</v>
+      </c>
+      <c r="O50">
+        <v>1594.4718700000001</v>
+      </c>
+      <c r="P50">
+        <v>1.2926788330000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>57</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>11419.01821</v>
+      </c>
+      <c r="L51">
+        <v>928</v>
+      </c>
+      <c r="M51">
+        <v>162225.24530000001</v>
+      </c>
+      <c r="N51">
+        <v>15050.10052</v>
+      </c>
+      <c r="O51">
+        <v>288.58421709999999</v>
+      </c>
+      <c r="P51">
+        <v>0.87529396999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>57</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>30</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>5122.3782499999998</v>
+      </c>
+      <c r="L52">
+        <v>14785</v>
+      </c>
+      <c r="M52">
+        <v>195882.1219</v>
+      </c>
+      <c r="N52">
+        <v>19987.115010000001</v>
+      </c>
+      <c r="O52">
+        <v>1378.5944460000001</v>
+      </c>
+      <c r="P52">
+        <v>1.5020091529999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>57</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>5187.3580190000002</v>
+      </c>
+      <c r="L53">
+        <v>1084</v>
+      </c>
+      <c r="M53">
+        <v>195909.42310000001</v>
+      </c>
+      <c r="N53">
+        <v>19994.732749999999</v>
+      </c>
+      <c r="O53">
+        <v>354.76902130000002</v>
+      </c>
+      <c r="P53">
+        <v>1.013789177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>57</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>30</v>
+      </c>
+      <c r="H54">
+        <v>0.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>8385.2995059999994</v>
+      </c>
+      <c r="L54">
+        <v>16019</v>
+      </c>
+      <c r="M54">
+        <v>204606.02910000001</v>
+      </c>
+      <c r="N54">
+        <v>20593.942159999999</v>
+      </c>
+      <c r="O54">
+        <v>1598.6790699999999</v>
+      </c>
+      <c r="P54">
+        <v>1.260969877</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>57</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>30</v>
+      </c>
+      <c r="H55">
+        <v>0.5</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>8456.4576969999998</v>
+      </c>
+      <c r="L55">
+        <v>740</v>
+      </c>
+      <c r="M55">
+        <v>207284.72839999999</v>
+      </c>
+      <c r="N55">
+        <v>20582.905890000002</v>
+      </c>
+      <c r="O55">
+        <v>222.16919490000001</v>
+      </c>
+      <c r="P55">
+        <v>1.024814844</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>57</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>30</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>16618.068759999998</v>
+      </c>
+      <c r="L56">
+        <v>16166</v>
+      </c>
+      <c r="M56">
+        <v>225354.9203</v>
+      </c>
+      <c r="N56">
+        <v>21777.106540000001</v>
+      </c>
+      <c r="O56">
+        <v>1740.7936010000001</v>
+      </c>
+      <c r="P56">
+        <v>1.6466450690000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>57</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>16986.258450000001</v>
+      </c>
+      <c r="L57">
+        <v>1154</v>
+      </c>
+      <c r="M57">
+        <v>243460.78630000001</v>
+      </c>
+      <c r="N57">
+        <v>22411.01772</v>
+      </c>
+      <c r="O57">
+        <v>396.14589999999998</v>
+      </c>
+      <c r="P57">
+        <v>1.6466450690000001</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/synthetic/FAresults-cutsharing.xlsx
+++ b/Python/output/synthetic/FAresults-cutsharing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/synthetic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C1DA02F5-DB4A-A04B-ACB9-43EFE5861F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D4B0FD7-E4C3-8045-8E61-AE8736BDC18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{F4B921D5-876A-DB47-B723-44565D89F8B4}"/>
+    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{D9CAEF20-BF47-094E-B9EF-DE8F1FECFD68}"/>
   </bookViews>
   <sheets>
     <sheet name="FAresults-cutsharing" sheetId="1" r:id="rId1"/>
@@ -927,11 +927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4C9ADF-43A8-C840-954A-44FCF844F852}">
-  <dimension ref="A1:P57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3540F09D-CBE6-D142-928F-E625B9264314}">
+  <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,9 +986,109 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1687.8485178538599</v>
+      </c>
+      <c r="L2">
+        <v>5434</v>
+      </c>
+      <c r="M2">
+        <v>1643.9227208265399</v>
+      </c>
+      <c r="N2">
+        <v>148.09787875697199</v>
+      </c>
+      <c r="O2">
+        <v>93.240224123001099</v>
+      </c>
+      <c r="P2">
+        <v>1.0123991966247501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1702.6304196521301</v>
+      </c>
+      <c r="L3">
+        <v>508</v>
+      </c>
+      <c r="M3">
+        <v>1644.93467997636</v>
+      </c>
+      <c r="N3">
+        <v>148.27294675131799</v>
+      </c>
+      <c r="O3">
+        <v>25.8203718662261</v>
+      </c>
+      <c r="P3">
+        <v>1.3332490921020499</v>
+      </c>
+    </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1009,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1018,27 +1118,27 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1736.7416000000001</v>
+        <v>3956.0579902352802</v>
       </c>
       <c r="L4">
-        <v>12531</v>
+        <v>4591</v>
       </c>
       <c r="M4">
-        <v>65342.304020000003</v>
+        <v>3851.3404651825099</v>
       </c>
       <c r="N4">
-        <v>7002.7690469999998</v>
+        <v>341.99936575097797</v>
       </c>
       <c r="O4">
-        <v>497.34414980000003</v>
+        <v>88.902116060256901</v>
       </c>
       <c r="P4">
-        <v>0.46374702499999998</v>
+        <v>1.09019780158996</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1059,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1068,27 +1168,27 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1764.7904639999999</v>
+        <v>3975.4553547904602</v>
       </c>
       <c r="L5">
-        <v>1873</v>
+        <v>913</v>
       </c>
       <c r="M5">
-        <v>65362.54105</v>
+        <v>3859.4610463771601</v>
       </c>
       <c r="N5">
-        <v>7007.3871360000003</v>
+        <v>345.581434859132</v>
       </c>
       <c r="O5">
-        <v>360.37094710000002</v>
+        <v>55.855435132980297</v>
       </c>
       <c r="P5">
-        <v>1.0630552769999999</v>
+        <v>1.76001477241516</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1109,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1118,27 +1218,27 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2924.2879280000002</v>
+        <v>8320.0751874682101</v>
       </c>
       <c r="L6">
-        <v>15903</v>
+        <v>3924</v>
       </c>
       <c r="M6">
-        <v>68178.716809999998</v>
+        <v>8597.9830599849392</v>
       </c>
       <c r="N6">
-        <v>7192.748904</v>
+        <v>1050.00171602769</v>
       </c>
       <c r="O6">
-        <v>662.588392</v>
+        <v>78.071189880371094</v>
       </c>
       <c r="P6">
-        <v>0.44343495399999999</v>
+        <v>1.13219785690307</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1159,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1168,27 +1268,27 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>2953.062093</v>
+        <v>8473.7785443115008</v>
       </c>
       <c r="L7">
-        <v>2010</v>
+        <v>711</v>
       </c>
       <c r="M7">
-        <v>68589.844039999996</v>
+        <v>8641.6002778659295</v>
       </c>
       <c r="N7">
-        <v>7191.3389340000003</v>
+        <v>1087.75285580849</v>
       </c>
       <c r="O7">
-        <v>386.34864019999998</v>
+        <v>43.100408077239898</v>
       </c>
       <c r="P7">
-        <v>1.3599169250000001</v>
+        <v>1.60475206375122</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1206,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1218,27 +1318,27 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>6028.359324</v>
+        <v>3167.71892559764</v>
       </c>
       <c r="L8">
-        <v>19276</v>
+        <v>4708</v>
       </c>
       <c r="M8">
-        <v>75511.947719999996</v>
+        <v>3059.9953838497399</v>
       </c>
       <c r="N8">
-        <v>7604.5040319999998</v>
+        <v>268.67453638385001</v>
       </c>
       <c r="O8">
-        <v>825.95476910000002</v>
+        <v>104.26391386985701</v>
       </c>
       <c r="P8">
-        <v>0.45233511900000001</v>
+        <v>1.3718967437744101</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1256,10 +1356,10 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1268,27 +1368,27 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>6107.2811510000001</v>
+        <v>3187.23065952466</v>
       </c>
       <c r="L9">
-        <v>909</v>
+        <v>331</v>
       </c>
       <c r="M9">
-        <v>81130.425319999995</v>
+        <v>3059.9036674087502</v>
       </c>
       <c r="N9">
-        <v>7791.2659990000002</v>
+        <v>268.66212496248397</v>
       </c>
       <c r="O9">
-        <v>137.48852299999999</v>
+        <v>17.858523130416799</v>
       </c>
       <c r="P9">
-        <v>0.72871684999999997</v>
+        <v>1.5927200317382799</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1309,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1318,27 +1418,27 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3297.2784729999998</v>
+        <v>7413.87049041512</v>
       </c>
       <c r="L10">
-        <v>14163</v>
+        <v>6903</v>
       </c>
       <c r="M10">
-        <v>130689.70909999999</v>
+        <v>7259.1606096119003</v>
       </c>
       <c r="N10">
-        <v>13483.608980000001</v>
+        <v>621.38796386208696</v>
       </c>
       <c r="O10">
-        <v>672.26819109999997</v>
+        <v>177.695878028869</v>
       </c>
       <c r="P10">
-        <v>0.495318174</v>
+        <v>1.5011749267578101</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1359,7 +1459,7 @@
         <v>20</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1368,27 +1468,27 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>3326.8230629999998</v>
+        <v>7436.2377560684099</v>
       </c>
       <c r="L11">
-        <v>1041</v>
+        <v>632</v>
       </c>
       <c r="M11">
-        <v>130729.00599999999</v>
+        <v>7240.57983948934</v>
       </c>
       <c r="N11">
-        <v>13491.42022</v>
+        <v>619.44674662246496</v>
       </c>
       <c r="O11">
-        <v>166.03133009999999</v>
+        <v>38.608623027801499</v>
       </c>
       <c r="P11">
-        <v>0.87740516700000004</v>
+        <v>1.8995888233184799</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1409,7 +1509,7 @@
         <v>20</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1418,27 +1518,27 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5432.0210500000003</v>
+        <v>16090.836269847499</v>
       </c>
       <c r="L12">
-        <v>11641</v>
+        <v>6326</v>
       </c>
       <c r="M12">
-        <v>136357.15530000001</v>
+        <v>16698.859375246699</v>
       </c>
       <c r="N12">
-        <v>13840.46192</v>
+        <v>1907.4672134034499</v>
       </c>
       <c r="O12">
-        <v>585.58782199999996</v>
+        <v>160.69473695754999</v>
       </c>
       <c r="P12">
-        <v>0.56653523400000005</v>
+        <v>1.46780180931091</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1459,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1468,27 +1568,27 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>5522.737959</v>
+        <v>16182.912984815701</v>
       </c>
       <c r="L13">
-        <v>1373</v>
+        <v>467</v>
       </c>
       <c r="M13">
-        <v>137413.54310000001</v>
+        <v>16670.3087045006</v>
       </c>
       <c r="N13">
-        <v>13852.483490000001</v>
+        <v>1902.3690852745599</v>
       </c>
       <c r="O13">
-        <v>250.67066120000001</v>
+        <v>27.906904220581001</v>
       </c>
       <c r="P13">
-        <v>0.99378514299999998</v>
+        <v>1.73591089248657</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1506,10 +1606,10 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1518,27 +1618,27 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11543.95009</v>
+        <v>4841.4042914812599</v>
       </c>
       <c r="L14">
-        <v>20000</v>
+        <v>3900</v>
       </c>
       <c r="M14">
-        <v>150933.36009999999</v>
+        <v>4735.4463038036401</v>
       </c>
       <c r="N14">
-        <v>14664.89495</v>
+        <v>421.77135408661201</v>
       </c>
       <c r="O14">
-        <v>1049.0954019999999</v>
+        <v>107.702315092086</v>
       </c>
       <c r="P14">
-        <v>0.54912924799999996</v>
+        <v>1.74415683746337</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1556,10 +1656,10 @@
         <v>3</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1568,27 +1668,27 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>11685.565189999999</v>
+        <v>4891.3895747307397</v>
       </c>
       <c r="L15">
-        <v>1006</v>
+        <v>540</v>
       </c>
       <c r="M15">
-        <v>161689.96419999999</v>
+        <v>4735.5666442063202</v>
       </c>
       <c r="N15">
-        <v>14997.42071</v>
+        <v>421.80378212986102</v>
       </c>
       <c r="O15">
-        <v>165.5174389</v>
+        <v>33.714224815368603</v>
       </c>
       <c r="P15">
-        <v>0.83990788500000002</v>
+        <v>2.1336219310760498</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1609,7 +1709,7 @@
         <v>30</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1618,27 +1718,27 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5067.9688029999998</v>
+        <v>11253.170451829799</v>
       </c>
       <c r="L16">
-        <v>14057</v>
+        <v>5876</v>
       </c>
       <c r="M16">
-        <v>195866.34469999999</v>
+        <v>11009.3848752962</v>
       </c>
       <c r="N16">
-        <v>19985.207269999999</v>
+        <v>999.20683684283995</v>
       </c>
       <c r="O16">
-        <v>791.76137210000002</v>
+        <v>176.083796977996</v>
       </c>
       <c r="P16">
-        <v>0.60721683500000001</v>
+        <v>1.85218501091003</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1659,7 +1759,7 @@
         <v>30</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1668,27 +1768,27 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>5113.8745040000003</v>
+        <v>11297.303063571901</v>
       </c>
       <c r="L17">
-        <v>1055</v>
+        <v>670</v>
       </c>
       <c r="M17">
-        <v>195895.14</v>
+        <v>11036.008383205</v>
       </c>
       <c r="N17">
-        <v>19993.41389</v>
+        <v>1009.10203243989</v>
       </c>
       <c r="O17">
-        <v>181.64792700000001</v>
+        <v>45.534945011138902</v>
       </c>
       <c r="P17">
-        <v>0.97395038599999995</v>
+        <v>2.3065550327300999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1709,7 +1809,7 @@
         <v>30</v>
       </c>
       <c r="H18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1718,27 +1818,27 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8330.9911269999993</v>
+        <v>23357.255285371899</v>
       </c>
       <c r="L18">
-        <v>14820</v>
+        <v>6515</v>
       </c>
       <c r="M18">
-        <v>204287.6361</v>
+        <v>24318.5624764436</v>
       </c>
       <c r="N18">
-        <v>20584.538199999999</v>
+        <v>2795.16712579262</v>
       </c>
       <c r="O18">
-        <v>885.15552070000001</v>
+        <v>205.08178997039701</v>
       </c>
       <c r="P18">
-        <v>0.63340902300000002</v>
+        <v>1.86365413665771</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1759,7 +1859,7 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1768,27 +1868,27 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>8420.092686</v>
+        <v>23593.703623963</v>
       </c>
       <c r="L19">
-        <v>1320</v>
+        <v>320</v>
       </c>
       <c r="M19">
-        <v>206406.6366</v>
+        <v>24289.0317202611</v>
       </c>
       <c r="N19">
-        <v>20578.70534</v>
+        <v>2777.9932320757498</v>
       </c>
       <c r="O19">
-        <v>241.55695410000001</v>
+        <v>20.337522029876698</v>
       </c>
       <c r="P19">
-        <v>1.055426121</v>
+        <v>2.02758717536926</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1803,13 +1903,13 @@
         <v>57</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1818,27 +1918,27 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17097.577010000001</v>
+        <v>1943.9030625487801</v>
       </c>
       <c r="L20">
-        <v>18684</v>
+        <v>6395</v>
       </c>
       <c r="M20">
-        <v>225897.41560000001</v>
+        <v>1964.45910872029</v>
       </c>
       <c r="N20">
-        <v>21885.106299999999</v>
+        <v>299.84408134073601</v>
       </c>
       <c r="O20">
-        <v>1144.3626690000001</v>
+        <v>147.538749933242</v>
       </c>
       <c r="P20">
-        <v>0.67087006599999999</v>
+        <v>1.6523129940032899</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1853,13 +1953,13 @@
         <v>57</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1868,27 +1968,27 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>17364.597450000001</v>
+        <v>1965.8087734390599</v>
       </c>
       <c r="L21">
-        <v>694</v>
+        <v>296</v>
       </c>
       <c r="M21">
-        <v>242876.39139999999</v>
+        <v>1964.47284133158</v>
       </c>
       <c r="N21">
-        <v>22453.097659999999</v>
+        <v>299.84355859715498</v>
       </c>
       <c r="O21">
-        <v>121.6213419</v>
+        <v>21.1136507987976</v>
       </c>
       <c r="P21">
-        <v>0.96524715400000005</v>
+        <v>1.9033689498901301</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1909,7 +2009,7 @@
         <v>10</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1918,27 +2018,27 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1838.12985</v>
+        <v>4104.6421216894096</v>
       </c>
       <c r="L22">
-        <v>14425</v>
+        <v>4852</v>
       </c>
       <c r="M22">
-        <v>65326.362650000003</v>
+        <v>4053.9475751671298</v>
       </c>
       <c r="N22">
-        <v>7000.5981009999996</v>
+        <v>433.30776395295402</v>
       </c>
       <c r="O22">
-        <v>799.65979600000003</v>
+        <v>132.194761276245</v>
       </c>
       <c r="P22">
-        <v>0.54915618899999996</v>
+        <v>1.8732738494873</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1959,7 +2059,7 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1968,27 +2068,27 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>1866.222405</v>
+        <v>4122.4666007515198</v>
       </c>
       <c r="L23">
-        <v>1319</v>
+        <v>643</v>
       </c>
       <c r="M23">
-        <v>65348.583700000003</v>
+        <v>4049.9673267169701</v>
       </c>
       <c r="N23">
-        <v>7003.6638290000001</v>
+        <v>433.41328207312398</v>
       </c>
       <c r="O23">
-        <v>411.97453189999999</v>
+        <v>52.510396242141702</v>
       </c>
       <c r="P23">
-        <v>1.6444761750000001</v>
+        <v>2.40524697303771</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2009,7 +2109,7 @@
         <v>10</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2018,27 +2118,27 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2936.6182560000002</v>
+        <v>8210.7946450921409</v>
       </c>
       <c r="L24">
-        <v>11273</v>
+        <v>6467</v>
       </c>
       <c r="M24">
-        <v>68069.381359999999</v>
+        <v>8383.9709778410797</v>
       </c>
       <c r="N24">
-        <v>7181.5407789999999</v>
+        <v>1095.3292472855301</v>
       </c>
       <c r="O24">
-        <v>636.90328190000002</v>
+        <v>174.65566611289901</v>
       </c>
       <c r="P24">
-        <v>0.55519795400000005</v>
+        <v>1.79791903495788</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2059,7 +2159,7 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2068,27 +2168,27 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>3003.95496</v>
+        <v>8264.0443126395203</v>
       </c>
       <c r="L25">
-        <v>1346</v>
+        <v>758</v>
       </c>
       <c r="M25">
-        <v>68721.671870000006</v>
+        <v>8410.6585062472204</v>
       </c>
       <c r="N25">
-        <v>7186.335986</v>
+        <v>1100.1830018529599</v>
       </c>
       <c r="O25">
-        <v>329.13315080000001</v>
+        <v>68.661221027374197</v>
       </c>
       <c r="P25">
-        <v>1.1649761199999999</v>
+        <v>2.46516990661621</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2106,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2118,27 +2218,27 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>5847.1416570000001</v>
+        <v>3234.2157279337298</v>
       </c>
       <c r="L26">
-        <v>15253</v>
+        <v>3058</v>
       </c>
       <c r="M26">
-        <v>74913.144469999999</v>
+        <v>3202.2066909089099</v>
       </c>
       <c r="N26">
-        <v>7579.9912729999996</v>
+        <v>340.26763944144602</v>
       </c>
       <c r="O26">
-        <v>886.83198830000003</v>
+        <v>88.825267076492295</v>
       </c>
       <c r="P26">
-        <v>0.57710099199999998</v>
+        <v>2.0616068840026802</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2156,10 +2256,10 @@
         <v>6</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2168,27 +2268,27 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>5949.6770450000004</v>
+        <v>3329.09756128867</v>
       </c>
       <c r="L27">
-        <v>1064</v>
+        <v>359</v>
       </c>
       <c r="M27">
-        <v>81450.097559999995</v>
+        <v>3202.1422584127499</v>
       </c>
       <c r="N27">
-        <v>7784.2198440000002</v>
+        <v>340.26200171617899</v>
       </c>
       <c r="O27">
-        <v>250.36078789999999</v>
+        <v>28.2396240234375</v>
       </c>
       <c r="P27">
-        <v>1.0227770810000001</v>
+        <v>2.35043096542358</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2209,7 +2309,7 @@
         <v>20</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2218,27 +2318,27 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>3339.0862244623199</v>
+        <v>7428.5868818532799</v>
       </c>
       <c r="L28">
-        <v>16526</v>
+        <v>4915</v>
       </c>
       <c r="M28">
-        <v>130710.226791803</v>
+        <v>7287.0968411056701</v>
       </c>
       <c r="N28">
-        <v>13487.372990363499</v>
+        <v>652.53400146722197</v>
       </c>
       <c r="O28">
-        <v>1039.2628529071801</v>
+        <v>167.07957696914599</v>
       </c>
       <c r="P28">
-        <v>0.62824487686157204</v>
+        <v>2.2808339595794598</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2259,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2268,27 +2368,27 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>3378.59243179654</v>
+        <v>7479.6699889661704</v>
       </c>
       <c r="L29">
-        <v>1060</v>
+        <v>572</v>
       </c>
       <c r="M29">
-        <v>130714.64745188699</v>
+        <v>7301.5903260176301</v>
       </c>
       <c r="N29">
-        <v>13487.9944975831</v>
+        <v>656.13511376338897</v>
       </c>
       <c r="O29">
-        <v>246.765195131301</v>
+        <v>49.992656230926499</v>
       </c>
       <c r="P29">
-        <v>1.09134101867675</v>
+        <v>2.7091150283813401</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2309,7 +2409,7 @@
         <v>20</v>
       </c>
       <c r="H30">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2318,27 +2418,27 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>5454.964696</v>
+        <v>15645.456422810101</v>
       </c>
       <c r="L30">
-        <v>15004</v>
+        <v>9580</v>
       </c>
       <c r="M30">
-        <v>136545.11199999999</v>
+        <v>16164.5866192741</v>
       </c>
       <c r="N30">
-        <v>13850.97099</v>
+        <v>1919.36096224058</v>
       </c>
       <c r="O30">
-        <v>1057.6004029999999</v>
+        <v>346.34882402419998</v>
       </c>
       <c r="P30">
-        <v>0.72658705700000004</v>
+        <v>2.2860090732574401</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2359,7 +2459,7 @@
         <v>20</v>
       </c>
       <c r="H31">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2368,27 +2468,27 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>5519.4289330000001</v>
+        <v>15733.3949844454</v>
       </c>
       <c r="L31">
-        <v>834</v>
+        <v>480</v>
       </c>
       <c r="M31">
-        <v>137549.4252</v>
+        <v>16203.5313457338</v>
       </c>
       <c r="N31">
-        <v>13852.37262</v>
+        <v>1916.8670359110999</v>
       </c>
       <c r="O31">
-        <v>189.37044309999999</v>
+        <v>43.369101047515798</v>
       </c>
       <c r="P31">
-        <v>0.68263792999999995</v>
+        <v>2.5748589038848801</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2406,10 +2506,10 @@
         <v>6</v>
       </c>
       <c r="G32">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2418,27 +2518,27 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>11032.75325</v>
+        <v>5102.8918342810002</v>
       </c>
       <c r="L32">
-        <v>11646</v>
+        <v>3479</v>
       </c>
       <c r="M32">
-        <v>150679.47839999999</v>
+        <v>5056.9057740970702</v>
       </c>
       <c r="N32">
-        <v>14632.796829999999</v>
+        <v>559.68346549459704</v>
       </c>
       <c r="O32">
-        <v>809.09585519999996</v>
+        <v>123.379219055175</v>
       </c>
       <c r="P32">
-        <v>0.99220109000000001</v>
+        <v>2.4433529376983598</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2456,10 +2556,10 @@
         <v>6</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2468,27 +2568,27 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>11318.36217</v>
+        <v>5232.3666834754404</v>
       </c>
       <c r="L33">
-        <v>785</v>
+        <v>326</v>
       </c>
       <c r="M33">
-        <v>162062.2524</v>
+        <v>5056.7515150551199</v>
       </c>
       <c r="N33">
-        <v>15021.633620000001</v>
+        <v>559.67871976742595</v>
       </c>
       <c r="O33">
-        <v>183.32869890000001</v>
+        <v>27.357562065124501</v>
       </c>
       <c r="P33">
-        <v>0.77987885499999998</v>
+        <v>2.67381620407104</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2509,7 +2609,7 @@
         <v>30</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2518,27 +2618,27 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>5175.8750179999997</v>
+        <v>11339.7864520617</v>
       </c>
       <c r="L34">
-        <v>13566</v>
+        <v>3811</v>
       </c>
       <c r="M34">
-        <v>195821.91099999999</v>
+        <v>11131.5118844557</v>
       </c>
       <c r="N34">
-        <v>19976.407800000001</v>
+        <v>1101.7709242486401</v>
       </c>
       <c r="O34">
-        <v>997.10074280000003</v>
+        <v>151.17489814758301</v>
       </c>
       <c r="P34">
-        <v>1.154596806</v>
+        <v>2.65510702133178</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2559,7 +2659,7 @@
         <v>30</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2568,27 +2668,27 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>5255.1838189999999</v>
+        <v>11452.478267779299</v>
       </c>
       <c r="L35">
-        <v>1011</v>
+        <v>778</v>
       </c>
       <c r="M35">
-        <v>195870.0215</v>
+        <v>11113.2725307653</v>
       </c>
       <c r="N35">
-        <v>19986.939729999998</v>
+        <v>1090.81925727321</v>
       </c>
       <c r="O35">
-        <v>242.02219769999999</v>
+        <v>77.018488168716402</v>
       </c>
       <c r="P35">
-        <v>0.81650471700000005</v>
+        <v>3.2812926769256499</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2609,7 +2709,7 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2618,27 +2718,27 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>8368.2806550000005</v>
+        <v>22770.412813466399</v>
       </c>
       <c r="L36">
-        <v>14165</v>
+        <v>5603</v>
       </c>
       <c r="M36">
-        <v>204352.4866</v>
+        <v>23676.093387041699</v>
       </c>
       <c r="N36">
-        <v>20593.657060000001</v>
+        <v>2783.8794006664798</v>
       </c>
       <c r="O36">
-        <v>1131.0296900000001</v>
+        <v>230.74664902686999</v>
       </c>
       <c r="P36">
-        <v>1.6769528389999999</v>
+        <v>2.6427690982818599</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2659,7 +2759,7 @@
         <v>30</v>
       </c>
       <c r="H37">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2668,27 +2768,27 @@
         <v>1</v>
       </c>
       <c r="K37">
-        <v>8454.5544699999991</v>
+        <v>22980.270175184101</v>
       </c>
       <c r="L37">
-        <v>1547</v>
+        <v>368</v>
       </c>
       <c r="M37">
-        <v>206047.26120000001</v>
+        <v>23675.2835049651</v>
       </c>
       <c r="N37">
-        <v>20576.47697</v>
+        <v>2792.6211169226899</v>
       </c>
       <c r="O37">
-        <v>428.30962899999997</v>
+        <v>33.782995223999002</v>
       </c>
       <c r="P37">
-        <v>0.91889595999999996</v>
+        <v>2.83594393730163</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2703,13 +2803,13 @@
         <v>57</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G38">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2718,27 +2818,27 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>16747.094260000002</v>
+        <v>1802.8106074556399</v>
       </c>
       <c r="L38">
-        <v>21431</v>
+        <v>5083</v>
       </c>
       <c r="M38">
-        <v>226062.17939999999</v>
+        <v>1800.2545641798799</v>
       </c>
       <c r="N38">
-        <v>21884.979240000001</v>
+        <v>224.74272667092501</v>
       </c>
       <c r="O38">
-        <v>1778.1165189999999</v>
+        <v>149.27709007263101</v>
       </c>
       <c r="P38">
-        <v>1.345211744</v>
+        <v>2.58278107643127</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2753,13 +2853,13 @@
         <v>57</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G39">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2768,27 +2868,27 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>16899.02506</v>
+        <v>1819.4431013465</v>
       </c>
       <c r="L39">
-        <v>1131</v>
+        <v>285</v>
       </c>
       <c r="M39">
-        <v>244016.93119999999</v>
+        <v>1800.2786585533599</v>
       </c>
       <c r="N39">
-        <v>22467.056809999998</v>
+        <v>224.74996995784301</v>
       </c>
       <c r="O39">
-        <v>293.83375189999998</v>
+        <v>27.049324750900201</v>
       </c>
       <c r="P39">
-        <v>0.61452317199999995</v>
+        <v>2.9068579673767001</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2809,7 +2909,7 @@
         <v>10</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2818,27 +2918,27 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1776.21498</v>
+        <v>4024.6441681019101</v>
       </c>
       <c r="L40">
-        <v>12548</v>
+        <v>5121</v>
       </c>
       <c r="M40">
-        <v>65342.28944</v>
+        <v>3979.8897486773999</v>
       </c>
       <c r="N40">
-        <v>7005.2295860000004</v>
+        <v>392.05332168156002</v>
       </c>
       <c r="O40">
-        <v>816.08924009999998</v>
+        <v>181.01558113098099</v>
       </c>
       <c r="P40">
-        <v>1.1335918899999999</v>
+        <v>2.8857719898223801</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2859,7 +2959,7 @@
         <v>10</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2868,27 +2968,27 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>1808.513066</v>
+        <v>4059.6665586254198</v>
       </c>
       <c r="L41">
-        <v>1016</v>
+        <v>796</v>
       </c>
       <c r="M41">
-        <v>65349.236320000004</v>
+        <v>3965.0190573196201</v>
       </c>
       <c r="N41">
-        <v>7006.2968170000004</v>
+        <v>389.311495390348</v>
       </c>
       <c r="O41">
-        <v>298.55551100000002</v>
+        <v>90.448130130767794</v>
       </c>
       <c r="P41">
-        <v>0.71214222900000002</v>
+        <v>3.6967077255249001</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2909,7 +3009,7 @@
         <v>10</v>
       </c>
       <c r="H42">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2918,27 +3018,27 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>2952.7039799999998</v>
+        <v>8247.4592700174799</v>
       </c>
       <c r="L42">
-        <v>16266</v>
+        <v>4365</v>
       </c>
       <c r="M42">
-        <v>68160.411070000002</v>
+        <v>8552.6929376321095</v>
       </c>
       <c r="N42">
-        <v>7192.6782059999996</v>
+        <v>1160.5103276836101</v>
       </c>
       <c r="O42">
-        <v>1182.4377260000001</v>
+        <v>148.431813716888</v>
       </c>
       <c r="P42">
-        <v>1.5713529589999999</v>
+        <v>2.7162890434265101</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2959,7 +3059,7 @@
         <v>10</v>
       </c>
       <c r="H43">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2968,27 +3068,27 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>2979.5718010000001</v>
+        <v>8413.4368582814404</v>
       </c>
       <c r="L43">
-        <v>1657</v>
+        <v>427</v>
       </c>
       <c r="M43">
-        <v>68651.480410000004</v>
+        <v>8460.4694504127292</v>
       </c>
       <c r="N43">
-        <v>7192.5016089999999</v>
+        <v>1136.6357393928999</v>
       </c>
       <c r="O43">
-        <v>537.31948179999995</v>
+        <v>46.345633983611997</v>
       </c>
       <c r="P43">
-        <v>0.69591784499999998</v>
+        <v>3.19248175621032</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3006,10 +3106,10 @@
         <v>9</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3018,27 +3118,27 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>5917.7665340000003</v>
+        <v>3207.9753461588498</v>
       </c>
       <c r="L44">
-        <v>16253</v>
+        <v>5193</v>
       </c>
       <c r="M44">
-        <v>74834.947480000003</v>
+        <v>3056.2348271938399</v>
       </c>
       <c r="N44">
-        <v>7569.6149649999998</v>
+        <v>270.01058858647099</v>
       </c>
       <c r="O44">
-        <v>1209.0373039999999</v>
+        <v>188.347398757934</v>
       </c>
       <c r="P44">
-        <v>1.105711699</v>
+        <v>2.94546127319335</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3056,10 +3156,10 @@
         <v>9</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3068,27 +3168,27 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>6017.4192720000001</v>
+        <v>3263.39757875959</v>
       </c>
       <c r="L45">
-        <v>800</v>
+        <v>329</v>
       </c>
       <c r="M45">
-        <v>81024.082689999996</v>
+        <v>3056.2615109849698</v>
       </c>
       <c r="N45">
-        <v>7740.0884219999998</v>
+        <v>270.00891285161299</v>
       </c>
       <c r="O45">
-        <v>228.08957599999999</v>
+        <v>33.728289127349797</v>
       </c>
       <c r="P45">
-        <v>0.74306726499999998</v>
+        <v>3.3195288181304901</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3109,7 +3209,7 @@
         <v>20</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3118,27 +3218,27 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>3317.8923159999999</v>
+        <v>7461.99202485153</v>
       </c>
       <c r="L46">
-        <v>15163</v>
+        <v>6893</v>
       </c>
       <c r="M46">
-        <v>130719.91929999999</v>
+        <v>7275.0261354873601</v>
       </c>
       <c r="N46">
-        <v>13488.16697</v>
+        <v>635.02246580417795</v>
       </c>
       <c r="O46">
-        <v>1184.6953450000001</v>
+        <v>308.99192905426003</v>
       </c>
       <c r="P46">
-        <v>2.1333391669999999</v>
+        <v>3.4222917556762602</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3159,7 +3259,7 @@
         <v>20</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3168,27 +3268,27 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>3359.0684670000001</v>
+        <v>7512.3145021896498</v>
       </c>
       <c r="L47">
-        <v>1805</v>
+        <v>720</v>
       </c>
       <c r="M47">
-        <v>130739.86500000001</v>
+        <v>7266.6333087253597</v>
       </c>
       <c r="N47">
-        <v>13491.636039999999</v>
+        <v>634.63709571346499</v>
       </c>
       <c r="O47">
-        <v>616.44342710000001</v>
+        <v>86.004514694213796</v>
       </c>
       <c r="P47">
-        <v>0.86595892900000004</v>
+        <v>4.0076839923858598</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3209,7 +3309,7 @@
         <v>20</v>
       </c>
       <c r="H48">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3218,27 +3318,27 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>5481.559929</v>
+        <v>15758.8493005091</v>
       </c>
       <c r="L48">
-        <v>16858</v>
+        <v>5036</v>
       </c>
       <c r="M48">
-        <v>136453.45610000001</v>
+        <v>16325.2854885044</v>
       </c>
       <c r="N48">
-        <v>13858.19364</v>
+        <v>1990.83372289317</v>
       </c>
       <c r="O48">
-        <v>1486.3668580000001</v>
+        <v>221.64364218711799</v>
       </c>
       <c r="P48">
-        <v>1.70206809</v>
+        <v>3.2320609092712398</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3259,7 +3359,7 @@
         <v>20</v>
       </c>
       <c r="H49">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3268,27 +3368,27 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>5537.6078559999996</v>
+        <v>15978.237377445699</v>
       </c>
       <c r="L49">
-        <v>1564</v>
+        <v>502</v>
       </c>
       <c r="M49">
-        <v>137577.81630000001</v>
+        <v>16263.1383939361</v>
       </c>
       <c r="N49">
-        <v>13857.57043</v>
+        <v>1968.25145702134</v>
       </c>
       <c r="O49">
-        <v>524.87840600000004</v>
+        <v>60.195359945297199</v>
       </c>
       <c r="P49">
-        <v>0.85755085900000005</v>
+        <v>3.6881551742553702</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3306,10 +3406,10 @@
         <v>9</v>
       </c>
       <c r="G50">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3318,27 +3418,27 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>11188.234200000001</v>
+        <v>4977.43024415532</v>
       </c>
       <c r="L50">
-        <v>17736</v>
+        <v>3466</v>
       </c>
       <c r="M50">
-        <v>149407.81049999999</v>
+        <v>4829.8460338203304</v>
       </c>
       <c r="N50">
-        <v>14592.51204</v>
+        <v>451.79880426983999</v>
       </c>
       <c r="O50">
-        <v>1594.4718700000001</v>
+        <v>147.93932294845499</v>
       </c>
       <c r="P50">
-        <v>1.2926788330000001</v>
+        <v>3.3573789596557599</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3356,10 +3456,10 @@
         <v>9</v>
       </c>
       <c r="G51">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3368,27 +3468,27 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>11419.01821</v>
+        <v>5048.7646462878201</v>
       </c>
       <c r="L51">
-        <v>928</v>
+        <v>321</v>
       </c>
       <c r="M51">
-        <v>162225.24530000001</v>
+        <v>4824.0526769606404</v>
       </c>
       <c r="N51">
-        <v>15050.10052</v>
+        <v>451.61347332714303</v>
       </c>
       <c r="O51">
-        <v>288.58421709999999</v>
+        <v>35.814492940902703</v>
       </c>
       <c r="P51">
-        <v>0.87529396999999998</v>
+        <v>3.77325987815856</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3409,7 +3509,7 @@
         <v>30</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3418,27 +3518,27 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>5122.3782499999998</v>
+        <v>11387.2307038162</v>
       </c>
       <c r="L52">
-        <v>14785</v>
+        <v>6420</v>
       </c>
       <c r="M52">
-        <v>195882.1219</v>
+        <v>11125.3038420618</v>
       </c>
       <c r="N52">
-        <v>19987.115010000001</v>
+        <v>1081.6425649523401</v>
       </c>
       <c r="O52">
-        <v>1378.5944460000001</v>
+        <v>331.83692288398697</v>
       </c>
       <c r="P52">
-        <v>1.5020091529999999</v>
+        <v>3.7902917861938401</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3459,7 +3559,7 @@
         <v>30</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3468,27 +3568,27 @@
         <v>1</v>
       </c>
       <c r="K53">
-        <v>5187.3580190000002</v>
+        <v>11448.6391649283</v>
       </c>
       <c r="L53">
-        <v>1084</v>
+        <v>655</v>
       </c>
       <c r="M53">
-        <v>195909.42310000001</v>
+        <v>11126.8023016838</v>
       </c>
       <c r="N53">
-        <v>19994.732749999999</v>
+        <v>1081.7772659290499</v>
       </c>
       <c r="O53">
-        <v>354.76902130000002</v>
+        <v>81.681873321533203</v>
       </c>
       <c r="P53">
-        <v>1.013789177</v>
+        <v>4.3213860988616899</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3509,7 +3609,7 @@
         <v>30</v>
       </c>
       <c r="H54">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3518,27 +3618,27 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>8385.2995059999994</v>
+        <v>23116.675313961401</v>
       </c>
       <c r="L54">
-        <v>16019</v>
+        <v>6889</v>
       </c>
       <c r="M54">
-        <v>204606.02910000001</v>
+        <v>24019.161961288399</v>
       </c>
       <c r="N54">
-        <v>20593.942159999999</v>
+        <v>2880.19552343041</v>
       </c>
       <c r="O54">
-        <v>1598.6790699999999</v>
+        <v>368.62593698501502</v>
       </c>
       <c r="P54">
-        <v>1.260969877</v>
+        <v>3.7736818790435702</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3559,7 +3659,7 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -3568,22 +3668,22 @@
         <v>1</v>
       </c>
       <c r="K55">
-        <v>8456.4576969999998</v>
+        <v>23274.734864514001</v>
       </c>
       <c r="L55">
-        <v>740</v>
+        <v>366</v>
       </c>
       <c r="M55">
-        <v>207284.72839999999</v>
+        <v>23957.8876094917</v>
       </c>
       <c r="N55">
-        <v>20582.905890000002</v>
+        <v>2856.6898651052502</v>
       </c>
       <c r="O55">
-        <v>222.16919490000001</v>
+        <v>44.8270490169525</v>
       </c>
       <c r="P55">
-        <v>1.024814844</v>
+        <v>3.9261608123779199</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -3603,13 +3703,13 @@
         <v>57</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3618,22 +3718,22 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>16618.068759999998</v>
+        <v>1725.68477314641</v>
       </c>
       <c r="L56">
-        <v>16166</v>
+        <v>9700</v>
       </c>
       <c r="M56">
-        <v>225354.9203</v>
+        <v>1931.0567465394399</v>
       </c>
       <c r="N56">
-        <v>21777.106540000001</v>
+        <v>385.54190228672599</v>
       </c>
       <c r="O56">
-        <v>1740.7936010000001</v>
+        <v>388.07690715789698</v>
       </c>
       <c r="P56">
-        <v>1.6466450690000001</v>
+        <v>0.74363994598388605</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -3653,13 +3753,13 @@
         <v>57</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3668,22 +3768,2622 @@
         <v>1</v>
       </c>
       <c r="K57">
-        <v>16986.258450000001</v>
+        <v>1764.4018969328899</v>
       </c>
       <c r="L57">
-        <v>1154</v>
+        <v>1382</v>
       </c>
       <c r="M57">
-        <v>243460.78630000001</v>
+        <v>1763.1728581207501</v>
       </c>
       <c r="N57">
-        <v>22411.01772</v>
+        <v>184.67259592206199</v>
       </c>
       <c r="O57">
-        <v>396.14589999999998</v>
+        <v>223.75631499290401</v>
       </c>
       <c r="P57">
-        <v>1.6466450690000001</v>
+        <v>1.24428606033325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>57</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>0.5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2917.98884679192</v>
+      </c>
+      <c r="L58">
+        <v>14786</v>
+      </c>
+      <c r="M58">
+        <v>3159.7447853697599</v>
+      </c>
+      <c r="N58">
+        <v>427.08046913761399</v>
+      </c>
+      <c r="O58">
+        <v>633.59676694869995</v>
+      </c>
+      <c r="P58">
+        <v>0.76525616645812899</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>57</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>0.5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>2953.0840432242198</v>
+      </c>
+      <c r="L59">
+        <v>1435</v>
+      </c>
+      <c r="M59">
+        <v>2996.6320450337098</v>
+      </c>
+      <c r="N59">
+        <v>256.24930620740901</v>
+      </c>
+      <c r="O59">
+        <v>240.780219078063</v>
+      </c>
+      <c r="P59">
+        <v>1.2400860786437899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>57</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>5992.6319092041103</v>
+      </c>
+      <c r="L60">
+        <v>13482</v>
+      </c>
+      <c r="M60">
+        <v>5832.4367894812503</v>
+      </c>
+      <c r="N60">
+        <v>732.76213991722295</v>
+      </c>
+      <c r="O60">
+        <v>592.64106774330105</v>
+      </c>
+      <c r="P60">
+        <v>0.78268098831176702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>57</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>6119.2152083852898</v>
+      </c>
+      <c r="L61">
+        <v>733</v>
+      </c>
+      <c r="M61">
+        <v>5888.5029096182498</v>
+      </c>
+      <c r="N61">
+        <v>735.28886360767501</v>
+      </c>
+      <c r="O61">
+        <v>108.93138813972401</v>
+      </c>
+      <c r="P61">
+        <v>0.99460077285766602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>57</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>20</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>3272.4041268328801</v>
+      </c>
+      <c r="L62">
+        <v>10473</v>
+      </c>
+      <c r="M62">
+        <v>3759.8476962593199</v>
+      </c>
+      <c r="N62">
+        <v>825.59659421722802</v>
+      </c>
+      <c r="O62">
+        <v>534.67264413833595</v>
+      </c>
+      <c r="P62">
+        <v>0.99116015434265103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>57</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>20</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>3330.2688782391301</v>
+      </c>
+      <c r="L63">
+        <v>1735</v>
+      </c>
+      <c r="M63">
+        <v>3352.2988023539801</v>
+      </c>
+      <c r="N63">
+        <v>296.64452976999701</v>
+      </c>
+      <c r="O63">
+        <v>318.72893309593201</v>
+      </c>
+      <c r="P63">
+        <v>1.6146547794342001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>57</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>20</v>
+      </c>
+      <c r="H64">
+        <v>0.5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>5480.7141771578599</v>
+      </c>
+      <c r="L64">
+        <v>17819</v>
+      </c>
+      <c r="M64">
+        <v>5870.1533156864698</v>
+      </c>
+      <c r="N64">
+        <v>894.76503871674402</v>
+      </c>
+      <c r="O64">
+        <v>985.18404412269501</v>
+      </c>
+      <c r="P64">
+        <v>1.01860976219177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>57</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>0.5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>5522.3460856975398</v>
+      </c>
+      <c r="L65">
+        <v>1310</v>
+      </c>
+      <c r="M65">
+        <v>5474.4096771321301</v>
+      </c>
+      <c r="N65">
+        <v>434.61946088542197</v>
+      </c>
+      <c r="O65">
+        <v>230.77498412132201</v>
+      </c>
+      <c r="P65">
+        <v>1.4475781917571999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>57</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>20</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>11385.201480781499</v>
+      </c>
+      <c r="L66">
+        <v>12294</v>
+      </c>
+      <c r="M66">
+        <v>11079.2220387985</v>
+      </c>
+      <c r="N66">
+        <v>1241.7878552613299</v>
+      </c>
+      <c r="O66">
+        <v>671.70813608169499</v>
+      </c>
+      <c r="P66">
+        <v>1.00145888328552</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>57</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>20</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>11680.523460021401</v>
+      </c>
+      <c r="L67">
+        <v>948</v>
+      </c>
+      <c r="M67">
+        <v>11234.7029398866</v>
+      </c>
+      <c r="N67">
+        <v>1279.2791564823301</v>
+      </c>
+      <c r="O67">
+        <v>163.087555885314</v>
+      </c>
+      <c r="P67">
+        <v>1.32494115829467</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>57</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>30</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>5065.4143763517905</v>
+      </c>
+      <c r="L68">
+        <v>11152</v>
+      </c>
+      <c r="M68">
+        <v>5205.7561798316801</v>
+      </c>
+      <c r="N68">
+        <v>457.30539585124302</v>
+      </c>
+      <c r="O68">
+        <v>689.30174374580304</v>
+      </c>
+      <c r="P68">
+        <v>1.2175657749176001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>57</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>30</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>5118.7987961271701</v>
+      </c>
+      <c r="L69">
+        <v>1712</v>
+      </c>
+      <c r="M69">
+        <v>5171.1630159244796</v>
+      </c>
+      <c r="N69">
+        <v>449.21714846909498</v>
+      </c>
+      <c r="O69">
+        <v>331.23023295402498</v>
+      </c>
+      <c r="P69">
+        <v>1.85757064819335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>57</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>30</v>
+      </c>
+      <c r="H70">
+        <v>0.5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>8250.4661524603198</v>
+      </c>
+      <c r="L70">
+        <v>10641</v>
+      </c>
+      <c r="M70">
+        <v>10293.9818037472</v>
+      </c>
+      <c r="N70">
+        <v>2145.44872727541</v>
+      </c>
+      <c r="O70">
+        <v>685.32533812522797</v>
+      </c>
+      <c r="P70">
+        <v>1.2319695949554399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>57</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>30</v>
+      </c>
+      <c r="H71">
+        <v>0.5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>8420.9574077867292</v>
+      </c>
+      <c r="L71">
+        <v>2003</v>
+      </c>
+      <c r="M71">
+        <v>8527.91700792138</v>
+      </c>
+      <c r="N71">
+        <v>716.86795078966497</v>
+      </c>
+      <c r="O71">
+        <v>420.4479970932</v>
+      </c>
+      <c r="P71">
+        <v>1.95578908920288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>57</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>30</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>17002.973617497901</v>
+      </c>
+      <c r="L72">
+        <v>14574</v>
+      </c>
+      <c r="M72">
+        <v>16722.054262954</v>
+      </c>
+      <c r="N72">
+        <v>2161.1090093682701</v>
+      </c>
+      <c r="O72">
+        <v>974.57396197318997</v>
+      </c>
+      <c r="P72">
+        <v>1.2376399040222099</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>57</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>30</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>17384.333740119298</v>
+      </c>
+      <c r="L73">
+        <v>966</v>
+      </c>
+      <c r="M73">
+        <v>16691.015069257901</v>
+      </c>
+      <c r="N73">
+        <v>2156.6390363038699</v>
+      </c>
+      <c r="O73">
+        <v>174.91889500617901</v>
+      </c>
+      <c r="P73">
+        <v>1.54109287261962</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>57</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1848.21986889756</v>
+      </c>
+      <c r="L74">
+        <v>16653</v>
+      </c>
+      <c r="M74">
+        <v>1818.5735517191999</v>
+      </c>
+      <c r="N74">
+        <v>213.234855150258</v>
+      </c>
+      <c r="O74">
+        <v>896.728203058242</v>
+      </c>
+      <c r="P74">
+        <v>1.2354149818420399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>57</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1865.9966804970099</v>
+      </c>
+      <c r="L75">
+        <v>1122</v>
+      </c>
+      <c r="M75">
+        <v>1818.6510866942699</v>
+      </c>
+      <c r="N75">
+        <v>213.238857483326</v>
+      </c>
+      <c r="O75">
+        <v>244.27630329132</v>
+      </c>
+      <c r="P75">
+        <v>1.73665595054626</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>57</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+      <c r="H76">
+        <v>0.5</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>2975.0828196255102</v>
+      </c>
+      <c r="L76">
+        <v>16525</v>
+      </c>
+      <c r="M76">
+        <v>2989.7773734897501</v>
+      </c>
+      <c r="N76">
+        <v>270.75673433308998</v>
+      </c>
+      <c r="O76">
+        <v>978.48579216003395</v>
+      </c>
+      <c r="P76">
+        <v>1.29129385948181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>57</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <v>0.5</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>3002.12215306198</v>
+      </c>
+      <c r="L77">
+        <v>1179</v>
+      </c>
+      <c r="M77">
+        <v>2996.5813832542999</v>
+      </c>
+      <c r="N77">
+        <v>271.72747544193697</v>
+      </c>
+      <c r="O77">
+        <v>266.112792015075</v>
+      </c>
+      <c r="P77">
+        <v>1.8130576610565099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>57</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>5826.6163644673097</v>
+      </c>
+      <c r="L78">
+        <v>17158</v>
+      </c>
+      <c r="M78">
+        <v>5795.2416904047604</v>
+      </c>
+      <c r="N78">
+        <v>788.83377871249195</v>
+      </c>
+      <c r="O78">
+        <v>1050.7235436439501</v>
+      </c>
+      <c r="P78">
+        <v>1.3371391296386701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>57</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>5947.8391707850997</v>
+      </c>
+      <c r="L79">
+        <v>947</v>
+      </c>
+      <c r="M79">
+        <v>5696.9723085347196</v>
+      </c>
+      <c r="N79">
+        <v>733.46610817927103</v>
+      </c>
+      <c r="O79">
+        <v>214.97784900665201</v>
+      </c>
+      <c r="P79">
+        <v>1.6454329490661599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>57</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80">
+        <v>20</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>3317.04127292357</v>
+      </c>
+      <c r="L80">
+        <v>12770</v>
+      </c>
+      <c r="M80">
+        <v>3378.2829170138498</v>
+      </c>
+      <c r="N80">
+        <v>312.39519881855801</v>
+      </c>
+      <c r="O80">
+        <v>865.715908050537</v>
+      </c>
+      <c r="P80">
+        <v>1.5059859752655</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>57</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>20</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>3378.7580790505999</v>
+      </c>
+      <c r="L81">
+        <v>1386</v>
+      </c>
+      <c r="M81">
+        <v>3361.4255387520602</v>
+      </c>
+      <c r="N81">
+        <v>306.01846238395501</v>
+      </c>
+      <c r="O81">
+        <v>341.812007188797</v>
+      </c>
+      <c r="P81">
+        <v>2.1677112579345699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>57</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82">
+        <v>20</v>
+      </c>
+      <c r="H82">
+        <v>0.5</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>5428.9955477481499</v>
+      </c>
+      <c r="L82">
+        <v>13100</v>
+      </c>
+      <c r="M82">
+        <v>5853.8644751704296</v>
+      </c>
+      <c r="N82">
+        <v>894.43944226329597</v>
+      </c>
+      <c r="O82">
+        <v>940.98486280441205</v>
+      </c>
+      <c r="P82">
+        <v>1.55282998085021</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>57</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83">
+        <v>20</v>
+      </c>
+      <c r="H83">
+        <v>0.5</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>5519.7711754332504</v>
+      </c>
+      <c r="L83">
+        <v>1115</v>
+      </c>
+      <c r="M83">
+        <v>5434.4519096571703</v>
+      </c>
+      <c r="N83">
+        <v>431.71425826021903</v>
+      </c>
+      <c r="O83">
+        <v>271.67960500717101</v>
+      </c>
+      <c r="P83">
+        <v>2.0018351078033398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>57</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84">
+        <v>20</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>11174.120100787301</v>
+      </c>
+      <c r="L84">
+        <v>17489</v>
+      </c>
+      <c r="M84">
+        <v>11203.8389606535</v>
+      </c>
+      <c r="N84">
+        <v>1492.1797907493601</v>
+      </c>
+      <c r="O84">
+        <v>1315.11538290977</v>
+      </c>
+      <c r="P84">
+        <v>1.5575208663940401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>57</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85">
+        <v>20</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>11328.4857062663</v>
+      </c>
+      <c r="L85">
+        <v>809</v>
+      </c>
+      <c r="M85">
+        <v>10817.4023758151</v>
+      </c>
+      <c r="N85">
+        <v>1270.2783793613</v>
+      </c>
+      <c r="O85">
+        <v>187.73407697677601</v>
+      </c>
+      <c r="P85">
+        <v>1.82349181175231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>57</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+      <c r="G86">
+        <v>30</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>5185.2453787219201</v>
+      </c>
+      <c r="L86">
+        <v>12862</v>
+      </c>
+      <c r="M86">
+        <v>5262.3554949723903</v>
+      </c>
+      <c r="N86">
+        <v>490.36982064177801</v>
+      </c>
+      <c r="O86">
+        <v>1019.56832408905</v>
+      </c>
+      <c r="P86">
+        <v>1.7523601055145199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>57</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87">
+        <v>30</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>5253.8315537946301</v>
+      </c>
+      <c r="L87">
+        <v>1075</v>
+      </c>
+      <c r="M87">
+        <v>5213.99842923496</v>
+      </c>
+      <c r="N87">
+        <v>475.654042514678</v>
+      </c>
+      <c r="O87">
+        <v>266.84461617469702</v>
+      </c>
+      <c r="P87">
+        <v>2.2318329811096098</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>57</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88">
+        <v>30</v>
+      </c>
+      <c r="H88">
+        <v>0.5</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>8372.1353083041995</v>
+      </c>
+      <c r="L88">
+        <v>16464</v>
+      </c>
+      <c r="M88">
+        <v>9401.0025507069295</v>
+      </c>
+      <c r="N88">
+        <v>1608.4350315131801</v>
+      </c>
+      <c r="O88">
+        <v>1452.6271469593</v>
+      </c>
+      <c r="P88">
+        <v>1.8446068763732899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>57</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89">
+        <v>30</v>
+      </c>
+      <c r="H89">
+        <v>0.5</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>8451.8908481935996</v>
+      </c>
+      <c r="L89">
+        <v>1021</v>
+      </c>
+      <c r="M89">
+        <v>8455.6677073674</v>
+      </c>
+      <c r="N89">
+        <v>711.41320716420103</v>
+      </c>
+      <c r="O89">
+        <v>255.64957690238899</v>
+      </c>
+      <c r="P89">
+        <v>2.2113451957702601</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>57</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90">
+        <v>30</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>16586.839711406101</v>
+      </c>
+      <c r="L90">
+        <v>15650</v>
+      </c>
+      <c r="M90">
+        <v>16265.136020087601</v>
+      </c>
+      <c r="N90">
+        <v>2186.0438138982499</v>
+      </c>
+      <c r="O90">
+        <v>1392.6400170326201</v>
+      </c>
+      <c r="P90">
+        <v>1.80800580978393</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>57</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91">
+        <v>30</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>16901.269260040899</v>
+      </c>
+      <c r="L91">
+        <v>1157</v>
+      </c>
+      <c r="M91">
+        <v>16185.1961586749</v>
+      </c>
+      <c r="N91">
+        <v>2145.9031959130498</v>
+      </c>
+      <c r="O91">
+        <v>308.02049708366297</v>
+      </c>
+      <c r="P91">
+        <v>2.2800769805908199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>57</v>
+      </c>
+      <c r="F92">
+        <v>9</v>
+      </c>
+      <c r="G92">
+        <v>10</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1791.8452100290899</v>
+      </c>
+      <c r="L92">
+        <v>17697</v>
+      </c>
+      <c r="M92">
+        <v>1787.5600954199999</v>
+      </c>
+      <c r="N92">
+        <v>197.67698931794601</v>
+      </c>
+      <c r="O92">
+        <v>1191.36750912666</v>
+      </c>
+      <c r="P92">
+        <v>1.9065198898315401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>57</v>
+      </c>
+      <c r="F93">
+        <v>9</v>
+      </c>
+      <c r="G93">
+        <v>10</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1808.63064980486</v>
+      </c>
+      <c r="L93">
+        <v>1229</v>
+      </c>
+      <c r="M93">
+        <v>1788.0072897049099</v>
+      </c>
+      <c r="N93">
+        <v>196.68579208860299</v>
+      </c>
+      <c r="O93">
+        <v>364.15235090255698</v>
+      </c>
+      <c r="P93">
+        <v>2.7537641525268501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>57</v>
+      </c>
+      <c r="F94">
+        <v>9</v>
+      </c>
+      <c r="G94">
+        <v>10</v>
+      </c>
+      <c r="H94">
+        <v>0.5</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>2932.5558983659398</v>
+      </c>
+      <c r="L94">
+        <v>12910</v>
+      </c>
+      <c r="M94">
+        <v>3298.79798935801</v>
+      </c>
+      <c r="N94">
+        <v>515.12679200317302</v>
+      </c>
+      <c r="O94">
+        <v>943.35504722595203</v>
+      </c>
+      <c r="P94">
+        <v>1.96654272079467</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>57</v>
+      </c>
+      <c r="F95">
+        <v>9</v>
+      </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="H95">
+        <v>0.5</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>2978.7101436928101</v>
+      </c>
+      <c r="L95">
+        <v>1218</v>
+      </c>
+      <c r="M95">
+        <v>2991.4659810621702</v>
+      </c>
+      <c r="N95">
+        <v>258.70683343857502</v>
+      </c>
+      <c r="O95">
+        <v>372.26381802558899</v>
+      </c>
+      <c r="P95">
+        <v>2.6813690662384002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>57</v>
+      </c>
+      <c r="F96">
+        <v>9</v>
+      </c>
+      <c r="G96">
+        <v>10</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>5928.0989051587203</v>
+      </c>
+      <c r="L96">
+        <v>16914</v>
+      </c>
+      <c r="M96">
+        <v>5781.6474075728202</v>
+      </c>
+      <c r="N96">
+        <v>756.80886143671796</v>
+      </c>
+      <c r="O96">
+        <v>1300.1780622005399</v>
+      </c>
+      <c r="P96">
+        <v>1.9715368747711099</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>57</v>
+      </c>
+      <c r="F97">
+        <v>9</v>
+      </c>
+      <c r="G97">
+        <v>10</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>6015.8728255923097</v>
+      </c>
+      <c r="L97">
+        <v>938</v>
+      </c>
+      <c r="M97">
+        <v>5743.1713006833197</v>
+      </c>
+      <c r="N97">
+        <v>744.86555485933798</v>
+      </c>
+      <c r="O97">
+        <v>280.13558912277199</v>
+      </c>
+      <c r="P97">
+        <v>2.4289460182189901</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>57</v>
+      </c>
+      <c r="F98">
+        <v>9</v>
+      </c>
+      <c r="G98">
+        <v>20</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>3309.62257358026</v>
+      </c>
+      <c r="L98">
+        <v>12184</v>
+      </c>
+      <c r="M98">
+        <v>3393.8549398866398</v>
+      </c>
+      <c r="N98">
+        <v>313.12216647808799</v>
+      </c>
+      <c r="O98">
+        <v>1009.91411018371</v>
+      </c>
+      <c r="P98">
+        <v>2.1751630306243799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>57</v>
+      </c>
+      <c r="F99">
+        <v>9</v>
+      </c>
+      <c r="G99">
+        <v>20</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>3358.3715941896598</v>
+      </c>
+      <c r="L99">
+        <v>1169</v>
+      </c>
+      <c r="M99">
+        <v>3352.0515946208898</v>
+      </c>
+      <c r="N99">
+        <v>297.77308912788402</v>
+      </c>
+      <c r="O99">
+        <v>360.67049908638</v>
+      </c>
+      <c r="P99">
+        <v>2.8612799644470202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>57</v>
+      </c>
+      <c r="F100">
+        <v>9</v>
+      </c>
+      <c r="G100">
+        <v>20</v>
+      </c>
+      <c r="H100">
+        <v>0.5</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>5436.8653412645299</v>
+      </c>
+      <c r="L100">
+        <v>10968</v>
+      </c>
+      <c r="M100">
+        <v>5923.5398202413498</v>
+      </c>
+      <c r="N100">
+        <v>920.26656370538797</v>
+      </c>
+      <c r="O100">
+        <v>982.57048797607399</v>
+      </c>
+      <c r="P100">
+        <v>2.2496480941772399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>57</v>
+      </c>
+      <c r="F101">
+        <v>9</v>
+      </c>
+      <c r="G101">
+        <v>20</v>
+      </c>
+      <c r="H101">
+        <v>0.5</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>5537.28761153906</v>
+      </c>
+      <c r="L101">
+        <v>1207</v>
+      </c>
+      <c r="M101">
+        <v>5464.4693621207298</v>
+      </c>
+      <c r="N101">
+        <v>438.19368183932698</v>
+      </c>
+      <c r="O101">
+        <v>381.33075809478697</v>
+      </c>
+      <c r="P101">
+        <v>2.9362928867339999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>57</v>
+      </c>
+      <c r="F102">
+        <v>9</v>
+      </c>
+      <c r="G102">
+        <v>20</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>11264.9480283953</v>
+      </c>
+      <c r="L102">
+        <v>19921</v>
+      </c>
+      <c r="M102">
+        <v>11109.180005341101</v>
+      </c>
+      <c r="N102">
+        <v>1390.0883250269901</v>
+      </c>
+      <c r="O102">
+        <v>1934.70765376091</v>
+      </c>
+      <c r="P102">
+        <v>2.3169271945953298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>57</v>
+      </c>
+      <c r="F103">
+        <v>9</v>
+      </c>
+      <c r="G103">
+        <v>20</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>11413.0481908165</v>
+      </c>
+      <c r="L103">
+        <v>971</v>
+      </c>
+      <c r="M103">
+        <v>10925.2093506777</v>
+      </c>
+      <c r="N103">
+        <v>1296.9508899253101</v>
+      </c>
+      <c r="O103">
+        <v>309.27125811576798</v>
+      </c>
+      <c r="P103">
+        <v>2.7707750797271702</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>57</v>
+      </c>
+      <c r="F104">
+        <v>9</v>
+      </c>
+      <c r="G104">
+        <v>30</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>5113.3850173747896</v>
+      </c>
+      <c r="L104">
+        <v>11937</v>
+      </c>
+      <c r="M104">
+        <v>6267.2042629471298</v>
+      </c>
+      <c r="N104">
+        <v>1618.84840496484</v>
+      </c>
+      <c r="O104">
+        <v>1159.6301047801901</v>
+      </c>
+      <c r="P104">
+        <v>2.4441220760345401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>57</v>
+      </c>
+      <c r="F105">
+        <v>9</v>
+      </c>
+      <c r="G105">
+        <v>30</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>5187.6885767444701</v>
+      </c>
+      <c r="L105">
+        <v>974</v>
+      </c>
+      <c r="M105">
+        <v>5198.8329631338202</v>
+      </c>
+      <c r="N105">
+        <v>462.12494025490298</v>
+      </c>
+      <c r="O105">
+        <v>302.55369114875703</v>
+      </c>
+      <c r="P105">
+        <v>3.02859306335449</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>57</v>
+      </c>
+      <c r="F106">
+        <v>9</v>
+      </c>
+      <c r="G106">
+        <v>30</v>
+      </c>
+      <c r="H106">
+        <v>0.5</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>8337.4345626679096</v>
+      </c>
+      <c r="L106">
+        <v>14773</v>
+      </c>
+      <c r="M106">
+        <v>9190.0731972064805</v>
+      </c>
+      <c r="N106">
+        <v>1481.0578705892599</v>
+      </c>
+      <c r="O106">
+        <v>1572.85480332374</v>
+      </c>
+      <c r="P106">
+        <v>2.5422828197479199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>57</v>
+      </c>
+      <c r="F107">
+        <v>9</v>
+      </c>
+      <c r="G107">
+        <v>30</v>
+      </c>
+      <c r="H107">
+        <v>0.5</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>8456.2681571458197</v>
+      </c>
+      <c r="L107">
+        <v>1109</v>
+      </c>
+      <c r="M107">
+        <v>8524.7743180048292</v>
+      </c>
+      <c r="N107">
+        <v>725.13436066630504</v>
+      </c>
+      <c r="O107">
+        <v>365.41474914550702</v>
+      </c>
+      <c r="P107">
+        <v>3.1737060546875</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>57</v>
+      </c>
+      <c r="F108">
+        <v>9</v>
+      </c>
+      <c r="G108">
+        <v>30</v>
+      </c>
+      <c r="H108">
+        <v>5</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>16697.754669143502</v>
+      </c>
+      <c r="L108">
+        <v>16944</v>
+      </c>
+      <c r="M108">
+        <v>16365.3837057975</v>
+      </c>
+      <c r="N108">
+        <v>2202.78376845509</v>
+      </c>
+      <c r="O108">
+        <v>1872.5112519264201</v>
+      </c>
+      <c r="P108">
+        <v>2.5232651233672998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>57</v>
+      </c>
+      <c r="F109">
+        <v>9</v>
+      </c>
+      <c r="G109">
+        <v>30</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>16990.044716663699</v>
+      </c>
+      <c r="L109">
+        <v>1312</v>
+      </c>
+      <c r="M109">
+        <v>16258.826599735599</v>
+      </c>
+      <c r="N109">
+        <v>2171.0584891960398</v>
+      </c>
+      <c r="O109">
+        <v>467.48883485793999</v>
+      </c>
+      <c r="P109">
+        <v>3.2512390613555899</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/synthetic/FAresults-cutsharing.xlsx
+++ b/Python/output/synthetic/FAresults-cutsharing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/synthetic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D4B0FD7-E4C3-8045-8E61-AE8736BDC18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3981C-2597-034A-92E0-AB29C3AC887B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{D9CAEF20-BF47-094E-B9EF-DE8F1FECFD68}"/>
+    <workbookView xWindow="13140" yWindow="4660" windowWidth="28040" windowHeight="17440" xr2:uid="{D9CAEF20-BF47-094E-B9EF-DE8F1FECFD68}"/>
   </bookViews>
   <sheets>
     <sheet name="FAresults-cutsharing" sheetId="1" r:id="rId1"/>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3540F09D-CBE6-D142-928F-E625B9264314}">
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1018,22 +1018,22 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1687.8485178538599</v>
+        <v>1676.374378</v>
       </c>
       <c r="L2">
-        <v>5434</v>
+        <v>6032</v>
       </c>
       <c r="M2">
-        <v>1643.9227208265399</v>
+        <v>1646.4296340000001</v>
       </c>
       <c r="N2">
-        <v>148.09787875697199</v>
+        <v>147.56271530000001</v>
       </c>
       <c r="O2">
-        <v>93.240224123001099</v>
+        <v>120.24016</v>
       </c>
       <c r="P2">
-        <v>1.0123991966247501</v>
+        <v>0.78754997299999996</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1059,31 +1059,31 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1702.6304196521301</v>
+        <v>4035.5405470000001</v>
       </c>
       <c r="L3">
-        <v>508</v>
+        <v>6521</v>
       </c>
       <c r="M3">
-        <v>1644.93467997636</v>
+        <v>3921.704999</v>
       </c>
       <c r="N3">
-        <v>148.27294675131799</v>
+        <v>341.41935139999998</v>
       </c>
       <c r="O3">
-        <v>25.8203718662261</v>
+        <v>137.04141899999999</v>
       </c>
       <c r="P3">
-        <v>1.3332490921020499</v>
+        <v>0.88091683399999998</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3956.0579902352802</v>
+        <v>8654.5630529999999</v>
       </c>
       <c r="L4">
-        <v>4591</v>
+        <v>5551</v>
       </c>
       <c r="M4">
-        <v>3851.3404651825099</v>
+        <v>8857.0201020000004</v>
       </c>
       <c r="N4">
-        <v>341.99936575097797</v>
+        <v>1140.069101</v>
       </c>
       <c r="O4">
-        <v>88.902116060256901</v>
+        <v>119.6941478</v>
       </c>
       <c r="P4">
-        <v>1.09019780158996</v>
+        <v>0.90429902100000004</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1156,34 +1156,34 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3975.4553547904602</v>
+        <v>3142.1875300000002</v>
       </c>
       <c r="L5">
-        <v>913</v>
+        <v>4379</v>
       </c>
       <c r="M5">
-        <v>3859.4610463771601</v>
+        <v>3061.4782970000001</v>
       </c>
       <c r="N5">
-        <v>345.581434859132</v>
+        <v>265.73017190000002</v>
       </c>
       <c r="O5">
-        <v>55.855435132980297</v>
+        <v>110.43898609999999</v>
       </c>
       <c r="P5">
-        <v>1.76001477241516</v>
+        <v>1.0792799</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1206,10 +1206,10 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1218,22 +1218,22 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8320.0751874682101</v>
+        <v>7562.2169389999999</v>
       </c>
       <c r="L6">
-        <v>3924</v>
+        <v>5883</v>
       </c>
       <c r="M6">
-        <v>8597.9830599849392</v>
+        <v>7400.9277499999998</v>
       </c>
       <c r="N6">
-        <v>1050.00171602769</v>
+        <v>613.76372409999999</v>
       </c>
       <c r="O6">
-        <v>78.071189880371094</v>
+        <v>159.81232600000001</v>
       </c>
       <c r="P6">
-        <v>1.13219785690307</v>
+        <v>1.2421629430000001</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1256,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1265,25 +1265,25 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>8473.7785443115008</v>
+        <v>16586.740669999999</v>
       </c>
       <c r="L7">
-        <v>711</v>
+        <v>7164</v>
       </c>
       <c r="M7">
-        <v>8641.6002778659295</v>
+        <v>17187.980380000001</v>
       </c>
       <c r="N7">
-        <v>1087.75285580849</v>
+        <v>1950.0245890000001</v>
       </c>
       <c r="O7">
-        <v>43.100408077239898</v>
+        <v>193.60189890000001</v>
       </c>
       <c r="P7">
-        <v>1.60475206375122</v>
+        <v>1.2313389779999999</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1318,22 +1318,22 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3167.71892559764</v>
+        <v>4824.6191529999996</v>
       </c>
       <c r="L8">
-        <v>4708</v>
+        <v>5263</v>
       </c>
       <c r="M8">
-        <v>3059.9953838497399</v>
+        <v>4696.3482610000001</v>
       </c>
       <c r="N8">
-        <v>268.67453638385001</v>
+        <v>407.40949030000002</v>
       </c>
       <c r="O8">
-        <v>104.26391386985701</v>
+        <v>161.39134809999999</v>
       </c>
       <c r="P8">
-        <v>1.3718967437744101</v>
+        <v>1.3982179159999999</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1356,34 +1356,34 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>3187.23065952466</v>
+        <v>11451.148450000001</v>
       </c>
       <c r="L9">
-        <v>331</v>
+        <v>6055</v>
       </c>
       <c r="M9">
-        <v>3059.9036674087502</v>
+        <v>11204.81387</v>
       </c>
       <c r="N9">
-        <v>268.66212496248397</v>
+        <v>994.1774838</v>
       </c>
       <c r="O9">
-        <v>17.858523130416799</v>
+        <v>196.12112619999999</v>
       </c>
       <c r="P9">
-        <v>1.5927200317382799</v>
+        <v>1.534227848</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1406,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7413.87049041512</v>
+        <v>24025.669160000001</v>
       </c>
       <c r="L10">
-        <v>6903</v>
+        <v>4718</v>
       </c>
       <c r="M10">
-        <v>7259.1606096119003</v>
+        <v>24942.296030000001</v>
       </c>
       <c r="N10">
-        <v>621.38796386208696</v>
+        <v>2719.1453230000002</v>
       </c>
       <c r="O10">
-        <v>177.695878028869</v>
+        <v>153.68996189999999</v>
       </c>
       <c r="P10">
-        <v>1.5011749267578101</v>
+        <v>1.5504341129999999</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1453,37 +1453,37 @@
         <v>57</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>7436.2377560684099</v>
+        <v>1928.9375359999999</v>
       </c>
       <c r="L11">
-        <v>632</v>
+        <v>5304</v>
       </c>
       <c r="M11">
-        <v>7240.57983948934</v>
+        <v>1965.031927</v>
       </c>
       <c r="N11">
-        <v>619.44674662246496</v>
+        <v>299.36763209999998</v>
       </c>
       <c r="O11">
-        <v>38.608623027801499</v>
+        <v>134.11197110000001</v>
       </c>
       <c r="P11">
-        <v>1.8995888233184799</v>
+        <v>0.90708708800000004</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1503,13 +1503,13 @@
         <v>57</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16090.836269847499</v>
+        <v>4155.2643639999997</v>
       </c>
       <c r="L12">
-        <v>6326</v>
+        <v>5576</v>
       </c>
       <c r="M12">
-        <v>16698.859375246699</v>
+        <v>4121.1427880000001</v>
       </c>
       <c r="N12">
-        <v>1907.4672134034499</v>
+        <v>430.87867799999998</v>
       </c>
       <c r="O12">
-        <v>160.69473695754999</v>
+        <v>161.59759310000001</v>
       </c>
       <c r="P12">
-        <v>1.46780180931091</v>
+        <v>1.172497034</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1553,10 +1553,10 @@
         <v>57</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -1565,25 +1565,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>16182.912984815701</v>
+        <v>8420.0943790000001</v>
       </c>
       <c r="L13">
-        <v>467</v>
+        <v>5726</v>
       </c>
       <c r="M13">
-        <v>16670.3087045006</v>
+        <v>8650.3882919999996</v>
       </c>
       <c r="N13">
-        <v>1902.3690852745599</v>
+        <v>1161.1874519999999</v>
       </c>
       <c r="O13">
-        <v>27.906904220581001</v>
+        <v>156.62245200000001</v>
       </c>
       <c r="P13">
-        <v>1.73591089248657</v>
+        <v>1.0560278890000001</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1603,10 +1603,10 @@
         <v>57</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1618,22 +1618,22 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4841.4042914812599</v>
+        <v>3284.274234</v>
       </c>
       <c r="L14">
-        <v>3900</v>
+        <v>6846</v>
       </c>
       <c r="M14">
-        <v>4735.4463038036401</v>
+        <v>3202.4589769999998</v>
       </c>
       <c r="N14">
-        <v>421.77135408661201</v>
+        <v>337.80645370000002</v>
       </c>
       <c r="O14">
-        <v>107.702315092086</v>
+        <v>221.0561788</v>
       </c>
       <c r="P14">
-        <v>1.74415683746337</v>
+        <v>1.284932137</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1653,37 +1653,37 @@
         <v>57</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4891.3895747307397</v>
+        <v>7573.8794449999996</v>
       </c>
       <c r="L15">
-        <v>540</v>
+        <v>4414</v>
       </c>
       <c r="M15">
-        <v>4735.5666442063202</v>
+        <v>7445.3557289999999</v>
       </c>
       <c r="N15">
-        <v>421.80378212986102</v>
+        <v>647.46960669999999</v>
       </c>
       <c r="O15">
-        <v>33.714224815368603</v>
+        <v>158.31284120000001</v>
       </c>
       <c r="P15">
-        <v>2.1336219310760498</v>
+        <v>1.530090094</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1703,13 +1703,13 @@
         <v>57</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1718,22 +1718,22 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11253.170451829799</v>
+        <v>16122.06955</v>
       </c>
       <c r="L16">
-        <v>5876</v>
+        <v>5659</v>
       </c>
       <c r="M16">
-        <v>11009.3848752962</v>
+        <v>16706.022000000001</v>
       </c>
       <c r="N16">
-        <v>999.20683684283995</v>
+        <v>1966.4506240000001</v>
       </c>
       <c r="O16">
-        <v>176.083796977996</v>
+        <v>197.591095</v>
       </c>
       <c r="P16">
-        <v>1.85218501091003</v>
+        <v>1.4840168949999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1753,37 +1753,37 @@
         <v>57</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>30</v>
       </c>
       <c r="H17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>11297.303063571901</v>
+        <v>5100.7439759999997</v>
       </c>
       <c r="L17">
-        <v>670</v>
+        <v>3198</v>
       </c>
       <c r="M17">
-        <v>11036.008383205</v>
+        <v>5017.0123919999996</v>
       </c>
       <c r="N17">
-        <v>1009.10203243989</v>
+        <v>548.49486839999997</v>
       </c>
       <c r="O17">
-        <v>45.534945011138902</v>
+        <v>125.599113</v>
       </c>
       <c r="P17">
-        <v>2.3065550327300999</v>
+        <v>1.623289108</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1803,13 +1803,13 @@
         <v>57</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>30</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23357.255285371899</v>
+        <v>11572.392390000001</v>
       </c>
       <c r="L18">
-        <v>6515</v>
+        <v>4551</v>
       </c>
       <c r="M18">
-        <v>24318.5624764436</v>
+        <v>11311.61116</v>
       </c>
       <c r="N18">
-        <v>2795.16712579262</v>
+        <v>1092.6885199999999</v>
       </c>
       <c r="O18">
-        <v>205.08178997039701</v>
+        <v>198.05809930000001</v>
       </c>
       <c r="P18">
-        <v>1.86365413665771</v>
+        <v>1.9317948819999999</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1853,7 +1853,7 @@
         <v>57</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>30</v>
@@ -1865,25 +1865,25 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>23593.703623963</v>
+        <v>23546.67152</v>
       </c>
       <c r="L19">
-        <v>320</v>
+        <v>5157</v>
       </c>
       <c r="M19">
-        <v>24289.0317202611</v>
+        <v>24466.16416</v>
       </c>
       <c r="N19">
-        <v>2777.9932320757498</v>
+        <v>2788.339379</v>
       </c>
       <c r="O19">
-        <v>20.337522029876698</v>
+        <v>219.91461989999999</v>
       </c>
       <c r="P19">
-        <v>2.02758717536926</v>
+        <v>1.8630752559999999</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1903,7 +1903,7 @@
         <v>57</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -1918,22 +1918,22 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1943.9030625487801</v>
+        <v>1778.2770829999999</v>
       </c>
       <c r="L20">
-        <v>6395</v>
+        <v>5695</v>
       </c>
       <c r="M20">
-        <v>1964.45910872029</v>
+        <v>1800.990681</v>
       </c>
       <c r="N20">
-        <v>299.84408134073601</v>
+        <v>223.98729230000001</v>
       </c>
       <c r="O20">
-        <v>147.538749933242</v>
+        <v>184.5648458</v>
       </c>
       <c r="P20">
-        <v>1.6523129940032899</v>
+        <v>1.102072239</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1953,37 +1953,37 @@
         <v>57</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1965.8087734390599</v>
+        <v>4108.6055109999998</v>
       </c>
       <c r="L21">
-        <v>296</v>
+        <v>5994</v>
       </c>
       <c r="M21">
-        <v>1964.47284133158</v>
+        <v>4032.7948270000002</v>
       </c>
       <c r="N21">
-        <v>299.84355859715498</v>
+        <v>386.48870060000002</v>
       </c>
       <c r="O21">
-        <v>21.1136507987976</v>
+        <v>224.60736470000001</v>
       </c>
       <c r="P21">
-        <v>1.9033689498901301</v>
+        <v>1.4577767850000001</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -2003,13 +2003,13 @@
         <v>57</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>10</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2018,22 +2018,22 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4104.6421216894096</v>
+        <v>8572.5349499999993</v>
       </c>
       <c r="L22">
-        <v>4852</v>
+        <v>4373</v>
       </c>
       <c r="M22">
-        <v>4053.9475751671298</v>
+        <v>8664.7161649999998</v>
       </c>
       <c r="N22">
-        <v>433.30776395295402</v>
+        <v>1180.1235790000001</v>
       </c>
       <c r="O22">
-        <v>132.194761276245</v>
+        <v>148.40310410000001</v>
       </c>
       <c r="P22">
-        <v>1.8732738494873</v>
+        <v>1.2092499729999999</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -2053,37 +2053,37 @@
         <v>57</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>4122.4666007515198</v>
+        <v>3195.4075990000001</v>
       </c>
       <c r="L23">
-        <v>643</v>
+        <v>3351</v>
       </c>
       <c r="M23">
-        <v>4049.9673267169701</v>
+        <v>3058.2555080000002</v>
       </c>
       <c r="N23">
-        <v>433.41328207312398</v>
+        <v>267.02457010000001</v>
       </c>
       <c r="O23">
-        <v>52.510396242141702</v>
+        <v>136.3292902</v>
       </c>
       <c r="P23">
-        <v>2.40524697303771</v>
+        <v>1.4715509410000001</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -2103,13 +2103,13 @@
         <v>57</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2118,22 +2118,22 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8210.7946450921409</v>
+        <v>7616.35232</v>
       </c>
       <c r="L24">
-        <v>6467</v>
+        <v>5125</v>
       </c>
       <c r="M24">
-        <v>8383.9709778410797</v>
+        <v>7419.0298210000001</v>
       </c>
       <c r="N24">
-        <v>1095.3292472855301</v>
+        <v>628.69040480000001</v>
       </c>
       <c r="O24">
-        <v>174.65566611289901</v>
+        <v>238.3017452</v>
       </c>
       <c r="P24">
-        <v>1.79791903495788</v>
+        <v>1.9435198309999999</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -2153,10 +2153,10 @@
         <v>57</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -2165,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>8264.0443126395203</v>
+        <v>16302.475640000001</v>
       </c>
       <c r="L25">
-        <v>758</v>
+        <v>6101</v>
       </c>
       <c r="M25">
-        <v>8410.6585062472204</v>
+        <v>16721.534</v>
       </c>
       <c r="N25">
-        <v>1100.1830018529599</v>
+        <v>1995.9059460000001</v>
       </c>
       <c r="O25">
-        <v>68.661221027374197</v>
+        <v>270.43937399999999</v>
       </c>
       <c r="P25">
-        <v>2.46516990661621</v>
+        <v>1.8426611420000001</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -2203,10 +2203,10 @@
         <v>57</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>3234.2157279337298</v>
+        <v>4949.8881840000004</v>
       </c>
       <c r="L26">
-        <v>3058</v>
+        <v>5070</v>
       </c>
       <c r="M26">
-        <v>3202.2066909089099</v>
+        <v>4788.1807500000004</v>
       </c>
       <c r="N26">
-        <v>340.26763944144602</v>
+        <v>437.92387919999999</v>
       </c>
       <c r="O26">
-        <v>88.825267076492295</v>
+        <v>248.41627790000001</v>
       </c>
       <c r="P26">
-        <v>2.0616068840026802</v>
+        <v>1.8871431350000001</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -2253,37 +2253,37 @@
         <v>57</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>3329.09756128867</v>
+        <v>11581.960359999999</v>
       </c>
       <c r="L27">
-        <v>359</v>
+        <v>6660</v>
       </c>
       <c r="M27">
-        <v>3202.1422584127499</v>
+        <v>11317.5689</v>
       </c>
       <c r="N27">
-        <v>340.26200171617899</v>
+        <v>1076.0335230000001</v>
       </c>
       <c r="O27">
-        <v>28.2396240234375</v>
+        <v>374.78616790000001</v>
       </c>
       <c r="P27">
-        <v>2.35043096542358</v>
+        <v>2.4717056749999999</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -2303,13 +2303,13 @@
         <v>57</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2318,27 +2318,27 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>7428.5868818532799</v>
+        <v>23833.59073</v>
       </c>
       <c r="L28">
-        <v>4915</v>
+        <v>6020</v>
       </c>
       <c r="M28">
-        <v>7287.0968411056701</v>
+        <v>24640.499240000001</v>
       </c>
       <c r="N28">
-        <v>652.53400146722197</v>
+        <v>2854.9091629999998</v>
       </c>
       <c r="O28">
-        <v>167.07957696914599</v>
+        <v>317.97528510000001</v>
       </c>
       <c r="P28">
-        <v>2.2808339595794598</v>
+        <v>2.2840597630000001</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2353,42 +2353,42 @@
         <v>57</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>7479.6699889661704</v>
+        <v>1729.79087</v>
       </c>
       <c r="L29">
-        <v>572</v>
+        <v>12120</v>
       </c>
       <c r="M29">
-        <v>7301.5903260176301</v>
+        <v>1767.8896259999999</v>
       </c>
       <c r="N29">
-        <v>656.13511376338897</v>
+        <v>189.9222426</v>
       </c>
       <c r="O29">
-        <v>49.992656230926499</v>
+        <v>524.86105610000004</v>
       </c>
       <c r="P29">
-        <v>2.7091150283813401</v>
+        <v>0.56831264500000001</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2403,13 +2403,13 @@
         <v>57</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2418,27 +2418,27 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>15645.456422810101</v>
+        <v>2966.1413699999998</v>
       </c>
       <c r="L30">
-        <v>9580</v>
+        <v>13954</v>
       </c>
       <c r="M30">
-        <v>16164.5866192741</v>
+        <v>3034.8171889999999</v>
       </c>
       <c r="N30">
-        <v>1919.36096224058</v>
+        <v>254.8896881</v>
       </c>
       <c r="O30">
-        <v>346.34882402419998</v>
+        <v>626.18640830000004</v>
       </c>
       <c r="P30">
-        <v>2.2860090732574401</v>
+        <v>0.64414215100000005</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>57</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -2465,30 +2465,30 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>15733.3949844454</v>
+        <v>6112.4480160000003</v>
       </c>
       <c r="L31">
-        <v>480</v>
+        <v>13220</v>
       </c>
       <c r="M31">
-        <v>16203.5313457338</v>
+        <v>6066.2520400000003</v>
       </c>
       <c r="N31">
-        <v>1916.8670359110999</v>
+        <v>749.65133230000004</v>
       </c>
       <c r="O31">
-        <v>43.369101047515798</v>
+        <v>593.25510220000001</v>
       </c>
       <c r="P31">
-        <v>2.5748589038848801</v>
+        <v>0.65909314200000002</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2503,10 +2503,10 @@
         <v>57</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2518,27 +2518,27 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>5102.8918342810002</v>
+        <v>3290.6214880000002</v>
       </c>
       <c r="L32">
-        <v>3479</v>
+        <v>14411</v>
       </c>
       <c r="M32">
-        <v>5056.9057740970702</v>
+        <v>3615.1983409999998</v>
       </c>
       <c r="N32">
-        <v>559.68346549459704</v>
+        <v>643.60758580000004</v>
       </c>
       <c r="O32">
-        <v>123.379219055175</v>
+        <v>809.40145589999997</v>
       </c>
       <c r="P32">
-        <v>2.4433529376983598</v>
+        <v>0.80588102299999997</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2553,42 +2553,42 @@
         <v>57</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>5232.3666834754404</v>
+        <v>5566.2204350000002</v>
       </c>
       <c r="L33">
-        <v>326</v>
+        <v>17083</v>
       </c>
       <c r="M33">
-        <v>5056.7515150551199</v>
+        <v>5573.2736430000004</v>
       </c>
       <c r="N33">
-        <v>559.67871976742595</v>
+        <v>440.83794339999997</v>
       </c>
       <c r="O33">
-        <v>27.357562065124501</v>
+        <v>996.83029699999997</v>
       </c>
       <c r="P33">
-        <v>2.67381620407104</v>
+        <v>0.90628004100000004</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>57</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H34">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2618,27 +2618,27 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>11339.7864520617</v>
+        <v>11710.083989999999</v>
       </c>
       <c r="L34">
-        <v>3811</v>
+        <v>16327</v>
       </c>
       <c r="M34">
-        <v>11131.5118844557</v>
+        <v>11355.04053</v>
       </c>
       <c r="N34">
-        <v>1101.7709242486401</v>
+        <v>1266.5456429999999</v>
       </c>
       <c r="O34">
-        <v>151.17489814758301</v>
+        <v>953.3234539</v>
       </c>
       <c r="P34">
-        <v>2.65510702133178</v>
+        <v>0.90556097000000002</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2653,42 +2653,42 @@
         <v>57</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>30</v>
       </c>
       <c r="H35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>11452.478267779299</v>
+        <v>5044.8444939999999</v>
       </c>
       <c r="L35">
-        <v>778</v>
+        <v>12801</v>
       </c>
       <c r="M35">
-        <v>11113.2725307653</v>
+        <v>5605.7288909999997</v>
       </c>
       <c r="N35">
-        <v>1090.81925727321</v>
+        <v>1029.0542009999999</v>
       </c>
       <c r="O35">
-        <v>77.018488168716402</v>
+        <v>881.11551310000004</v>
       </c>
       <c r="P35">
-        <v>3.2812926769256499</v>
+        <v>1.0366477970000001</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2703,13 +2703,13 @@
         <v>57</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G36">
         <v>30</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2718,27 +2718,27 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>22770.412813466399</v>
+        <v>8456.9976910000005</v>
       </c>
       <c r="L36">
-        <v>5603</v>
+        <v>14412</v>
       </c>
       <c r="M36">
-        <v>23676.093387041699</v>
+        <v>8863.5655040000001</v>
       </c>
       <c r="N36">
-        <v>2783.8794006664798</v>
+        <v>889.24236499999995</v>
       </c>
       <c r="O36">
-        <v>230.74664902686999</v>
+        <v>1004.8828580000001</v>
       </c>
       <c r="P36">
-        <v>2.6427690982818599</v>
+        <v>1.103690147</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>57</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>30</v>
@@ -2765,30 +2765,30 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>22980.270175184101</v>
+        <v>17507.741320000001</v>
       </c>
       <c r="L37">
-        <v>368</v>
+        <v>15981</v>
       </c>
       <c r="M37">
-        <v>23675.2835049651</v>
+        <v>16917.025369999999</v>
       </c>
       <c r="N37">
-        <v>2792.6211169226899</v>
+        <v>2141.7294120000001</v>
       </c>
       <c r="O37">
-        <v>33.782995223999002</v>
+        <v>1105.864552</v>
       </c>
       <c r="P37">
-        <v>2.83594393730163</v>
+        <v>1.1321153639999999</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>57</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G38">
         <v>10</v>
@@ -2818,27 +2818,27 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1802.8106074556399</v>
+        <v>1826.1945949999999</v>
       </c>
       <c r="L38">
-        <v>5083</v>
+        <v>13893</v>
       </c>
       <c r="M38">
-        <v>1800.2545641798799</v>
+        <v>1796.9152340000001</v>
       </c>
       <c r="N38">
-        <v>224.74272667092501</v>
+        <v>210.9097591</v>
       </c>
       <c r="O38">
-        <v>149.27709007263101</v>
+        <v>809.51533700000005</v>
       </c>
       <c r="P38">
-        <v>2.58278107643127</v>
+        <v>0.72527193999999995</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2853,42 +2853,42 @@
         <v>57</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G39">
         <v>10</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>1819.4431013465</v>
+        <v>3006.7675239999999</v>
       </c>
       <c r="L39">
-        <v>285</v>
+        <v>13120</v>
       </c>
       <c r="M39">
-        <v>1800.2786585533599</v>
+        <v>3031.018118</v>
       </c>
       <c r="N39">
-        <v>224.74996995784301</v>
+        <v>268.99802140000003</v>
       </c>
       <c r="O39">
-        <v>27.049324750900201</v>
+        <v>799.98052310000003</v>
       </c>
       <c r="P39">
-        <v>2.9068579673767001</v>
+        <v>0.83486890800000002</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2903,13 +2903,13 @@
         <v>57</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G40">
         <v>10</v>
       </c>
       <c r="H40">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2918,27 +2918,27 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>4024.6441681019101</v>
+        <v>5914.3562679999995</v>
       </c>
       <c r="L40">
-        <v>5121</v>
+        <v>13686</v>
       </c>
       <c r="M40">
-        <v>3979.8897486773999</v>
+        <v>5730.7930509999997</v>
       </c>
       <c r="N40">
-        <v>392.05332168156002</v>
+        <v>722.61078180000004</v>
       </c>
       <c r="O40">
-        <v>181.01558113098099</v>
+        <v>844.11747720000005</v>
       </c>
       <c r="P40">
-        <v>2.8857719898223801</v>
+        <v>0.85908293700000005</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2953,42 +2953,42 @@
         <v>57</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>4059.6665586254198</v>
+        <v>3328.1508119999999</v>
       </c>
       <c r="L41">
-        <v>796</v>
+        <v>12547</v>
       </c>
       <c r="M41">
-        <v>3965.0190573196201</v>
+        <v>3361.9737709999999</v>
       </c>
       <c r="N41">
-        <v>389.311495390348</v>
+        <v>309.8513792</v>
       </c>
       <c r="O41">
-        <v>90.448130130767794</v>
+        <v>948.84231090000003</v>
       </c>
       <c r="P41">
-        <v>3.6967077255249001</v>
+        <v>0.99689006800000002</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>57</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3018,27 +3018,27 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>8247.4592700174799</v>
+        <v>5547.676676</v>
       </c>
       <c r="L42">
-        <v>4365</v>
+        <v>12842</v>
       </c>
       <c r="M42">
-        <v>8552.6929376321095</v>
+        <v>5518.6266059999998</v>
       </c>
       <c r="N42">
-        <v>1160.5103276836101</v>
+        <v>431.70957440000001</v>
       </c>
       <c r="O42">
-        <v>148.431813716888</v>
+        <v>984.01497410000002</v>
       </c>
       <c r="P42">
-        <v>2.7162890434265101</v>
+        <v>1.125490189</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3053,10 +3053,10 @@
         <v>57</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H43">
         <v>5</v>
@@ -3065,30 +3065,30 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>8413.4368582814404</v>
+        <v>11194.87766</v>
       </c>
       <c r="L43">
-        <v>427</v>
+        <v>10311</v>
       </c>
       <c r="M43">
-        <v>8460.4694504127292</v>
+        <v>10964.632869999999</v>
       </c>
       <c r="N43">
-        <v>1136.6357393928999</v>
+        <v>1239.1805569999999</v>
       </c>
       <c r="O43">
-        <v>46.345633983611997</v>
+        <v>786.51780580000002</v>
       </c>
       <c r="P43">
-        <v>3.19248175621032</v>
+        <v>1.091212034</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3103,10 +3103,10 @@
         <v>57</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3118,27 +3118,27 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>3207.9753461588498</v>
+        <v>5115.3139520000004</v>
       </c>
       <c r="L44">
-        <v>5193</v>
+        <v>9787</v>
       </c>
       <c r="M44">
-        <v>3056.2348271938399</v>
+        <v>5151.6111460000002</v>
       </c>
       <c r="N44">
-        <v>270.01058858647099</v>
+        <v>460.66344179999999</v>
       </c>
       <c r="O44">
-        <v>188.347398757934</v>
+        <v>870.65006919999996</v>
       </c>
       <c r="P44">
-        <v>2.94546127319335</v>
+        <v>1.245497227</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3153,42 +3153,42 @@
         <v>57</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>3263.39757875959</v>
+        <v>8507.5299680000007</v>
       </c>
       <c r="L45">
-        <v>329</v>
+        <v>14368</v>
       </c>
       <c r="M45">
-        <v>3056.2615109849698</v>
+        <v>8578.811205</v>
       </c>
       <c r="N45">
-        <v>270.00891285161299</v>
+        <v>709.70687290000001</v>
       </c>
       <c r="O45">
-        <v>33.728289127349797</v>
+        <v>1335.9795570000001</v>
       </c>
       <c r="P45">
-        <v>3.3195288181304901</v>
+        <v>1.421438932</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3203,13 +3203,13 @@
         <v>57</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G46">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H46">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3218,27 +3218,27 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>7461.99202485153</v>
+        <v>16877.433789999999</v>
       </c>
       <c r="L46">
-        <v>6893</v>
+        <v>13461</v>
       </c>
       <c r="M46">
-        <v>7275.0261354873601</v>
+        <v>16457.772250000002</v>
       </c>
       <c r="N46">
-        <v>635.02246580417795</v>
+        <v>2178.188114</v>
       </c>
       <c r="O46">
-        <v>308.99192905426003</v>
+        <v>1236.4740380000001</v>
       </c>
       <c r="P46">
-        <v>3.4222917556762602</v>
+        <v>1.3618309500000001</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3256,39 +3256,39 @@
         <v>9</v>
       </c>
       <c r="G47">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H47">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>7512.3145021896498</v>
+        <v>1779.455093</v>
       </c>
       <c r="L47">
-        <v>720</v>
+        <v>13363</v>
       </c>
       <c r="M47">
-        <v>7266.6333087253597</v>
+        <v>1766.050338</v>
       </c>
       <c r="N47">
-        <v>634.63709571346499</v>
+        <v>193.6379005</v>
       </c>
       <c r="O47">
-        <v>86.004514694213796</v>
+        <v>988.27294400000005</v>
       </c>
       <c r="P47">
-        <v>4.0076839923858598</v>
+        <v>0.86950206799999996</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3306,10 +3306,10 @@
         <v>9</v>
       </c>
       <c r="G48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3318,27 +3318,27 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>15758.8493005091</v>
+        <v>2984.7488440000002</v>
       </c>
       <c r="L48">
-        <v>5036</v>
+        <v>13319</v>
       </c>
       <c r="M48">
-        <v>16325.2854885044</v>
+        <v>3033.0631349999999</v>
       </c>
       <c r="N48">
-        <v>1990.83372289317</v>
+        <v>257.71728230000002</v>
       </c>
       <c r="O48">
-        <v>221.64364218711799</v>
+        <v>1039.5783750000001</v>
       </c>
       <c r="P48">
-        <v>3.2320609092712398</v>
+        <v>1.044739962</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>9</v>
       </c>
       <c r="G49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -3365,30 +3365,30 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>15978.237377445699</v>
+        <v>6027.1261119999999</v>
       </c>
       <c r="L49">
-        <v>502</v>
+        <v>14891</v>
       </c>
       <c r="M49">
-        <v>16263.1383939361</v>
+        <v>5884.4541829999998</v>
       </c>
       <c r="N49">
-        <v>1968.25145702134</v>
+        <v>751.08499270000004</v>
       </c>
       <c r="O49">
-        <v>60.195359945297199</v>
+        <v>1126.9305099999999</v>
       </c>
       <c r="P49">
-        <v>3.6881551742553702</v>
+        <v>1.010197878</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>9</v>
       </c>
       <c r="G50">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3418,27 +3418,27 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>4977.43024415532</v>
+        <v>3308.1213870000001</v>
       </c>
       <c r="L50">
-        <v>3466</v>
+        <v>13218</v>
       </c>
       <c r="M50">
-        <v>4829.8460338203304</v>
+        <v>3331.2883280000001</v>
       </c>
       <c r="N50">
-        <v>451.79880426983999</v>
+        <v>294.20819999999998</v>
       </c>
       <c r="O50">
-        <v>147.93932294845499</v>
+        <v>1225.15335</v>
       </c>
       <c r="P50">
-        <v>3.3573789596557599</v>
+        <v>1.1638190749999999</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3456,39 +3456,39 @@
         <v>9</v>
       </c>
       <c r="G51">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>5048.7646462878201</v>
+        <v>5573.3590009999998</v>
       </c>
       <c r="L51">
-        <v>321</v>
+        <v>15869</v>
       </c>
       <c r="M51">
-        <v>4824.0526769606404</v>
+        <v>5552.5528249999998</v>
       </c>
       <c r="N51">
-        <v>451.61347332714303</v>
+        <v>436.08729319999998</v>
       </c>
       <c r="O51">
-        <v>35.814492940902703</v>
+        <v>1588.7670900000001</v>
       </c>
       <c r="P51">
-        <v>3.77325987815856</v>
+        <v>1.460196018</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3506,10 +3506,10 @@
         <v>9</v>
       </c>
       <c r="G52">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H52">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3518,27 +3518,27 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>11387.2307038162</v>
+        <v>11529.68727</v>
       </c>
       <c r="L52">
-        <v>6420</v>
+        <v>16436</v>
       </c>
       <c r="M52">
-        <v>11125.3038420618</v>
+        <v>11101.107840000001</v>
       </c>
       <c r="N52">
-        <v>1081.6425649523401</v>
+        <v>1276.8401690000001</v>
       </c>
       <c r="O52">
-        <v>331.83692288398697</v>
+        <v>1564.467623</v>
       </c>
       <c r="P52">
-        <v>3.7902917861938401</v>
+        <v>1.352385044</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3559,36 +3559,36 @@
         <v>30</v>
       </c>
       <c r="H53">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>11448.6391649283</v>
+        <v>5116.2245940000003</v>
       </c>
       <c r="L53">
-        <v>655</v>
+        <v>13401</v>
       </c>
       <c r="M53">
-        <v>11126.8023016838</v>
+        <v>5139.5493530000003</v>
       </c>
       <c r="N53">
-        <v>1081.7772659290499</v>
+        <v>449.83187290000001</v>
       </c>
       <c r="O53">
-        <v>81.681873321533203</v>
+        <v>1474.2853339999999</v>
       </c>
       <c r="P53">
-        <v>4.3213860988616899</v>
+        <v>1.4311349390000001</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>30</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3618,27 +3618,27 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>23116.675313961401</v>
+        <v>8491.587689</v>
       </c>
       <c r="L54">
-        <v>6889</v>
+        <v>12706</v>
       </c>
       <c r="M54">
-        <v>24019.161961288399</v>
+        <v>8643.7410949999994</v>
       </c>
       <c r="N54">
-        <v>2880.19552343041</v>
+        <v>714.76354679999997</v>
       </c>
       <c r="O54">
-        <v>368.62593698501502</v>
+        <v>1474.136348</v>
       </c>
       <c r="P54">
-        <v>3.7736818790435702</v>
+        <v>1.6642289159999999</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3665,30 +3665,30 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>23274.734864514001</v>
+        <v>17070.13193</v>
       </c>
       <c r="L55">
-        <v>366</v>
+        <v>16379</v>
       </c>
       <c r="M55">
-        <v>23957.8876094917</v>
+        <v>16537.046880000002</v>
       </c>
       <c r="N55">
-        <v>2856.6898651052502</v>
+        <v>2153.431529</v>
       </c>
       <c r="O55">
-        <v>44.8270490169525</v>
+        <v>1859.9006380000001</v>
       </c>
       <c r="P55">
-        <v>3.9261608123779199</v>
+        <v>1.663256168</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3715,30 +3715,30 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>1725.68477314641</v>
+        <v>1693.2430589999999</v>
       </c>
       <c r="L56">
-        <v>9700</v>
+        <v>397</v>
       </c>
       <c r="M56">
-        <v>1931.0567465394399</v>
+        <v>1646.354863</v>
       </c>
       <c r="N56">
-        <v>385.54190228672599</v>
+        <v>147.54879120000001</v>
       </c>
       <c r="O56">
-        <v>388.07690715789698</v>
+        <v>20.072869780000001</v>
       </c>
       <c r="P56">
-        <v>0.74363994598388605</v>
+        <v>1.012212992</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>10</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3768,27 +3768,27 @@
         <v>1</v>
       </c>
       <c r="K57">
-        <v>1764.4018969328899</v>
+        <v>4047.628346</v>
       </c>
       <c r="L57">
-        <v>1382</v>
+        <v>693</v>
       </c>
       <c r="M57">
-        <v>1763.1728581207501</v>
+        <v>3923.3162179999999</v>
       </c>
       <c r="N57">
-        <v>184.67259592206199</v>
+        <v>342.23666200000002</v>
       </c>
       <c r="O57">
-        <v>223.75631499290401</v>
+        <v>40.301218990000002</v>
       </c>
       <c r="P57">
-        <v>1.24428606033325</v>
+        <v>1.416714907</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3809,36 +3809,36 @@
         <v>10</v>
       </c>
       <c r="H58">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>2917.98884679192</v>
+        <v>8734.3316149999991</v>
       </c>
       <c r="L58">
-        <v>14786</v>
+        <v>479</v>
       </c>
       <c r="M58">
-        <v>3159.7447853697599</v>
+        <v>8876.3784820000001</v>
       </c>
       <c r="N58">
-        <v>427.08046913761399</v>
+        <v>1148.095714</v>
       </c>
       <c r="O58">
-        <v>633.59676694869995</v>
+        <v>25.666698929999999</v>
       </c>
       <c r="P58">
-        <v>0.76525616645812899</v>
+        <v>1.1418962479999999</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3868,27 +3868,27 @@
         <v>1</v>
       </c>
       <c r="K59">
-        <v>2953.0840432242198</v>
+        <v>3175.2612220000001</v>
       </c>
       <c r="L59">
-        <v>1435</v>
+        <v>397</v>
       </c>
       <c r="M59">
-        <v>2996.6320450337098</v>
+        <v>3061.8431350000001</v>
       </c>
       <c r="N59">
-        <v>256.24930620740901</v>
+        <v>265.78450620000001</v>
       </c>
       <c r="O59">
-        <v>240.780219078063</v>
+        <v>22.607810740000001</v>
       </c>
       <c r="P59">
-        <v>1.2400860786437899</v>
+        <v>1.3583550449999999</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3906,39 +3906,39 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>5992.6319092041103</v>
+        <v>7590.1474749999998</v>
       </c>
       <c r="L60">
-        <v>13482</v>
+        <v>680</v>
       </c>
       <c r="M60">
-        <v>5832.4367894812503</v>
+        <v>7391.6613369999995</v>
       </c>
       <c r="N60">
-        <v>732.76213991722295</v>
+        <v>614.06392270000003</v>
       </c>
       <c r="O60">
-        <v>592.64106774330105</v>
+        <v>42.912620070000003</v>
       </c>
       <c r="P60">
-        <v>0.78268098831176702</v>
+        <v>1.715713024</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>3</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H61">
         <v>5</v>
@@ -3968,27 +3968,27 @@
         <v>1</v>
       </c>
       <c r="K61">
-        <v>6119.2152083852898</v>
+        <v>16672.588919999998</v>
       </c>
       <c r="L61">
-        <v>733</v>
+        <v>442</v>
       </c>
       <c r="M61">
-        <v>5888.5029096182498</v>
+        <v>17138.507860000002</v>
       </c>
       <c r="N61">
-        <v>735.28886360767501</v>
+        <v>1928.8896649999999</v>
       </c>
       <c r="O61">
-        <v>108.93138813972401</v>
+        <v>26.319837809999999</v>
       </c>
       <c r="P61">
-        <v>0.99460077285766602</v>
+        <v>1.43411994</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4006,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -4015,30 +4015,30 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>3272.4041268328801</v>
+        <v>4859.59166</v>
       </c>
       <c r="L62">
-        <v>10473</v>
+        <v>388</v>
       </c>
       <c r="M62">
-        <v>3759.8476962593199</v>
+        <v>4696.188881</v>
       </c>
       <c r="N62">
-        <v>825.59659421722802</v>
+        <v>407.38727419999998</v>
       </c>
       <c r="O62">
-        <v>534.67264413833595</v>
+        <v>24.252118589999998</v>
       </c>
       <c r="P62">
-        <v>0.99116015434265103</v>
+        <v>1.6757788659999999</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4056,10 +4056,10 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4068,27 +4068,27 @@
         <v>1</v>
       </c>
       <c r="K63">
-        <v>3330.2688782391301</v>
+        <v>11503.967119999999</v>
       </c>
       <c r="L63">
-        <v>1735</v>
+        <v>719</v>
       </c>
       <c r="M63">
-        <v>3352.2988023539801</v>
+        <v>11183.1985</v>
       </c>
       <c r="N63">
-        <v>296.64452976999701</v>
+        <v>988.94111799999996</v>
       </c>
       <c r="O63">
-        <v>318.72893309593201</v>
+        <v>50.649883029999998</v>
       </c>
       <c r="P63">
-        <v>1.6146547794342001</v>
+        <v>2.083476782</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4106,39 +4106,39 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>5480.7141771578599</v>
+        <v>24343.316620000001</v>
       </c>
       <c r="L64">
-        <v>17819</v>
+        <v>311</v>
       </c>
       <c r="M64">
-        <v>5870.1533156864698</v>
+        <v>25016.853330000002</v>
       </c>
       <c r="N64">
-        <v>894.76503871674402</v>
+        <v>2765.2264</v>
       </c>
       <c r="O64">
-        <v>985.18404412269501</v>
+        <v>19.152746919999998</v>
       </c>
       <c r="P64">
-        <v>1.01860976219177</v>
+        <v>1.6396369930000001</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4153,13 +4153,13 @@
         <v>57</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G65">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H65">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4168,27 +4168,27 @@
         <v>1</v>
       </c>
       <c r="K65">
-        <v>5522.3460856975398</v>
+        <v>1953.114339</v>
       </c>
       <c r="L65">
-        <v>1310</v>
+        <v>380</v>
       </c>
       <c r="M65">
-        <v>5474.4096771321301</v>
+        <v>1965.238419</v>
       </c>
       <c r="N65">
-        <v>434.61946088542197</v>
+        <v>299.37100149999998</v>
       </c>
       <c r="O65">
-        <v>230.77498412132201</v>
+        <v>28.13708711</v>
       </c>
       <c r="P65">
-        <v>1.4475781917571999</v>
+        <v>1.248594999</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4203,42 +4203,42 @@
         <v>57</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G66">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>11385.201480781499</v>
+        <v>4192.7927099999997</v>
       </c>
       <c r="L66">
-        <v>12294</v>
+        <v>542</v>
       </c>
       <c r="M66">
-        <v>11079.2220387985</v>
+        <v>4118.4087810000001</v>
       </c>
       <c r="N66">
-        <v>1241.7878552613299</v>
+        <v>431.42080110000001</v>
       </c>
       <c r="O66">
-        <v>671.70813608169499</v>
+        <v>43.54120898</v>
       </c>
       <c r="P66">
-        <v>1.00145888328552</v>
+        <v>1.559225082</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4253,10 +4253,10 @@
         <v>57</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G67">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H67">
         <v>5</v>
@@ -4268,27 +4268,27 @@
         <v>1</v>
       </c>
       <c r="K67">
-        <v>11680.523460021401</v>
+        <v>8522.4736049999992</v>
       </c>
       <c r="L67">
-        <v>948</v>
+        <v>262</v>
       </c>
       <c r="M67">
-        <v>11234.7029398866</v>
+        <v>8648.0453500000003</v>
       </c>
       <c r="N67">
-        <v>1279.2791564823301</v>
+        <v>1160.0950310000001</v>
       </c>
       <c r="O67">
-        <v>163.087555885314</v>
+        <v>18.97354507</v>
       </c>
       <c r="P67">
-        <v>1.32494115829467</v>
+        <v>1.1587598320000001</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4303,10 +4303,10 @@
         <v>57</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G68">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -4315,30 +4315,30 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>5065.4143763517905</v>
+        <v>3315.2955630000001</v>
       </c>
       <c r="L68">
-        <v>11152</v>
+        <v>381</v>
       </c>
       <c r="M68">
-        <v>5205.7561798316801</v>
+        <v>3202.66068</v>
       </c>
       <c r="N68">
-        <v>457.30539585124302</v>
+        <v>337.81298370000002</v>
       </c>
       <c r="O68">
-        <v>689.30174374580304</v>
+        <v>31.064941879999999</v>
       </c>
       <c r="P68">
-        <v>1.2175657749176001</v>
+        <v>1.647593021</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -4353,13 +4353,13 @@
         <v>57</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G69">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4368,27 +4368,27 @@
         <v>1</v>
       </c>
       <c r="K69">
-        <v>5118.7987961271701</v>
+        <v>7629.6113750000004</v>
       </c>
       <c r="L69">
-        <v>1712</v>
+        <v>646</v>
       </c>
       <c r="M69">
-        <v>5171.1630159244796</v>
+        <v>7434.9345910000002</v>
       </c>
       <c r="N69">
-        <v>449.21714846909498</v>
+        <v>647.85965369999997</v>
       </c>
       <c r="O69">
-        <v>331.23023295402498</v>
+        <v>58.616178040000001</v>
       </c>
       <c r="P69">
-        <v>1.85757064819335</v>
+        <v>2.0740659240000001</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4403,42 +4403,42 @@
         <v>57</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G70">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H70">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>8250.4661524603198</v>
+        <v>16214.48695</v>
       </c>
       <c r="L70">
-        <v>10641</v>
+        <v>316</v>
       </c>
       <c r="M70">
-        <v>10293.9818037472</v>
+        <v>16657.462200000002</v>
       </c>
       <c r="N70">
-        <v>2145.44872727541</v>
+        <v>1943.1303290000001</v>
       </c>
       <c r="O70">
-        <v>685.32533812522797</v>
+        <v>25.83636808</v>
       </c>
       <c r="P70">
-        <v>1.2319695949554399</v>
+        <v>1.5968999859999999</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4453,13 +4453,13 @@
         <v>57</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G71">
         <v>30</v>
       </c>
       <c r="H71">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4468,27 +4468,27 @@
         <v>1</v>
       </c>
       <c r="K71">
-        <v>8420.9574077867292</v>
+        <v>5205.6971249999997</v>
       </c>
       <c r="L71">
-        <v>2003</v>
+        <v>424</v>
       </c>
       <c r="M71">
-        <v>8527.91700792138</v>
+        <v>5017.3542109999999</v>
       </c>
       <c r="N71">
-        <v>716.86795078966497</v>
+        <v>548.50772870000003</v>
       </c>
       <c r="O71">
-        <v>420.4479970932</v>
+        <v>38.11379814</v>
       </c>
       <c r="P71">
-        <v>1.95578908920288</v>
+        <v>2.0405557160000001</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4503,42 +4503,42 @@
         <v>57</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G72">
         <v>30</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>17002.973617497901</v>
+        <v>11642.0867</v>
       </c>
       <c r="L72">
-        <v>14574</v>
+        <v>558</v>
       </c>
       <c r="M72">
-        <v>16722.054262954</v>
+        <v>11282.40365</v>
       </c>
       <c r="N72">
-        <v>2161.1090093682701</v>
+        <v>1069.684847</v>
       </c>
       <c r="O72">
-        <v>974.57396197318997</v>
+        <v>53.226900819999997</v>
       </c>
       <c r="P72">
-        <v>1.2376399040222099</v>
+        <v>2.3937091829999999</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>57</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G73">
         <v>30</v>
@@ -4568,27 +4568,27 @@
         <v>1</v>
       </c>
       <c r="K73">
-        <v>17384.333740119298</v>
+        <v>23723.90711</v>
       </c>
       <c r="L73">
-        <v>966</v>
+        <v>265</v>
       </c>
       <c r="M73">
-        <v>16691.015069257901</v>
+        <v>24397.317230000001</v>
       </c>
       <c r="N73">
-        <v>2156.6390363038699</v>
+        <v>2781.7244839999998</v>
       </c>
       <c r="O73">
-        <v>174.91889500617901</v>
+        <v>23.897411819999999</v>
       </c>
       <c r="P73">
-        <v>1.54109287261962</v>
+        <v>1.908394098</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>57</v>
       </c>
       <c r="F74">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G74">
         <v>10</v>
@@ -4615,30 +4615,30 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>1848.21986889756</v>
+        <v>1807.3448519999999</v>
       </c>
       <c r="L74">
-        <v>16653</v>
+        <v>303</v>
       </c>
       <c r="M74">
-        <v>1818.5735517191999</v>
+        <v>1800.9811299999999</v>
       </c>
       <c r="N74">
-        <v>213.234855150258</v>
+        <v>223.9871976</v>
       </c>
       <c r="O74">
-        <v>896.728203058242</v>
+        <v>29.595492839999999</v>
       </c>
       <c r="P74">
-        <v>1.2354149818420399</v>
+        <v>1.4088163380000001</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -4653,13 +4653,13 @@
         <v>57</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G75">
         <v>10</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4668,27 +4668,27 @@
         <v>1</v>
       </c>
       <c r="K75">
-        <v>1865.9966804970099</v>
+        <v>4130.2649590000001</v>
       </c>
       <c r="L75">
-        <v>1122</v>
+        <v>665</v>
       </c>
       <c r="M75">
-        <v>1818.6510866942699</v>
+        <v>4032.6479730000001</v>
       </c>
       <c r="N75">
-        <v>213.238857483326</v>
+        <v>387.06920969999999</v>
       </c>
       <c r="O75">
-        <v>244.27630329132</v>
+        <v>73.338605880000003</v>
       </c>
       <c r="P75">
-        <v>1.73665595054626</v>
+        <v>2.122622013</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4703,42 +4703,42 @@
         <v>57</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G76">
         <v>10</v>
       </c>
       <c r="H76">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
-        <v>2975.0828196255102</v>
+        <v>8671.5337010000003</v>
       </c>
       <c r="L76">
-        <v>16525</v>
+        <v>260</v>
       </c>
       <c r="M76">
-        <v>2989.7773734897501</v>
+        <v>8683.2959690000007</v>
       </c>
       <c r="N76">
-        <v>270.75673433308998</v>
+        <v>1191.9036570000001</v>
       </c>
       <c r="O76">
-        <v>978.48579216003395</v>
+        <v>25.123516800000001</v>
       </c>
       <c r="P76">
-        <v>1.29129385948181</v>
+        <v>1.40256381</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4753,13 +4753,13 @@
         <v>57</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G77">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H77">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -4768,27 +4768,27 @@
         <v>1</v>
       </c>
       <c r="K77">
-        <v>3002.12215306198</v>
+        <v>3249.1254220000001</v>
       </c>
       <c r="L77">
-        <v>1179</v>
+        <v>370</v>
       </c>
       <c r="M77">
-        <v>2996.5813832542999</v>
+        <v>3058.280471</v>
       </c>
       <c r="N77">
-        <v>271.72747544193697</v>
+        <v>267.02864929999998</v>
       </c>
       <c r="O77">
-        <v>266.112792015075</v>
+        <v>39.744082929999998</v>
       </c>
       <c r="P77">
-        <v>1.8130576610565099</v>
+        <v>1.880584955</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4803,42 +4803,42 @@
         <v>57</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G78">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>5826.6163644673097</v>
+        <v>7662.5589920000002</v>
       </c>
       <c r="L78">
-        <v>17158</v>
+        <v>752</v>
       </c>
       <c r="M78">
-        <v>5795.2416904047604</v>
+        <v>7422.8573420000002</v>
       </c>
       <c r="N78">
-        <v>788.83377871249195</v>
+        <v>632.23653260000003</v>
       </c>
       <c r="O78">
-        <v>1050.7235436439501</v>
+        <v>92.830470800000001</v>
       </c>
       <c r="P78">
-        <v>1.3371391296386701</v>
+        <v>2.6520447730000001</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4853,10 +4853,10 @@
         <v>57</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G79">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -4868,27 +4868,27 @@
         <v>1</v>
       </c>
       <c r="K79">
-        <v>5947.8391707850997</v>
+        <v>16463.276010000001</v>
       </c>
       <c r="L79">
-        <v>947</v>
+        <v>483</v>
       </c>
       <c r="M79">
-        <v>5696.9723085347196</v>
+        <v>16734.222890000001</v>
       </c>
       <c r="N79">
-        <v>733.46610817927103</v>
+        <v>1997.1584419999999</v>
       </c>
       <c r="O79">
-        <v>214.97784900665201</v>
+        <v>54.04842901</v>
       </c>
       <c r="P79">
-        <v>1.6454329490661599</v>
+        <v>2.1482870580000002</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4903,10 +4903,10 @@
         <v>57</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G80">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4915,30 +4915,30 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>3317.04127292357</v>
+        <v>5021.9371279999996</v>
       </c>
       <c r="L80">
-        <v>12770</v>
+        <v>410</v>
       </c>
       <c r="M80">
-        <v>3378.2829170138498</v>
+        <v>4788.4778930000002</v>
       </c>
       <c r="N80">
-        <v>312.39519881855801</v>
+        <v>437.73767670000001</v>
       </c>
       <c r="O80">
-        <v>865.715908050537</v>
+        <v>48.733216050000003</v>
       </c>
       <c r="P80">
-        <v>1.5059859752655</v>
+        <v>2.403401852</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4953,13 +4953,13 @@
         <v>57</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G81">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -4968,27 +4968,27 @@
         <v>1</v>
       </c>
       <c r="K81">
-        <v>3378.7580790505999</v>
+        <v>11639.23129</v>
       </c>
       <c r="L81">
-        <v>1386</v>
+        <v>595</v>
       </c>
       <c r="M81">
-        <v>3361.4255387520602</v>
+        <v>11310.093409999999</v>
       </c>
       <c r="N81">
-        <v>306.01846238395501</v>
+        <v>1075.81449</v>
       </c>
       <c r="O81">
-        <v>341.812007188797</v>
+        <v>75.776366710000005</v>
       </c>
       <c r="P81">
-        <v>2.1677112579345699</v>
+        <v>2.915529013</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -5003,37 +5003,37 @@
         <v>57</v>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G82">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H82">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>5428.9955477481499</v>
+        <v>24019.30558</v>
       </c>
       <c r="L82">
-        <v>13100</v>
+        <v>264</v>
       </c>
       <c r="M82">
-        <v>5853.8644751704296</v>
+        <v>24684.47997</v>
       </c>
       <c r="N82">
-        <v>894.43944226329597</v>
+        <v>2846.3618700000002</v>
       </c>
       <c r="O82">
-        <v>940.98486280441205</v>
+        <v>30.176725860000001</v>
       </c>
       <c r="P82">
-        <v>1.55282998085021</v>
+        <v>2.1950578690000002</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -5053,13 +5053,13 @@
         <v>57</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H83">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -5068,22 +5068,22 @@
         <v>1</v>
       </c>
       <c r="K83">
-        <v>5519.7711754332504</v>
+        <v>1754.987748</v>
       </c>
       <c r="L83">
-        <v>1115</v>
+        <v>916</v>
       </c>
       <c r="M83">
-        <v>5434.4519096571703</v>
+        <v>1744.9561630000001</v>
       </c>
       <c r="N83">
-        <v>431.71425826021903</v>
+        <v>182.73063859999999</v>
       </c>
       <c r="O83">
-        <v>271.67960500717101</v>
+        <v>138.7158689</v>
       </c>
       <c r="P83">
-        <v>2.0018351078033398</v>
+        <v>1.0163280960000001</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -5103,37 +5103,37 @@
         <v>57</v>
       </c>
       <c r="F84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G84">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>11174.120100787301</v>
+        <v>2986.974749</v>
       </c>
       <c r="L84">
-        <v>17489</v>
+        <v>1269</v>
       </c>
       <c r="M84">
-        <v>11203.8389606535</v>
+        <v>3040.4213709999999</v>
       </c>
       <c r="N84">
-        <v>1492.1797907493601</v>
+        <v>256.1524096</v>
       </c>
       <c r="O84">
-        <v>1315.11538290977</v>
+        <v>203.86257789999999</v>
       </c>
       <c r="P84">
-        <v>1.5575208663940401</v>
+        <v>1.18829608</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -5153,10 +5153,10 @@
         <v>57</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G85">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H85">
         <v>5</v>
@@ -5168,22 +5168,22 @@
         <v>1</v>
       </c>
       <c r="K85">
-        <v>11328.4857062663</v>
+        <v>6219.4754510000002</v>
       </c>
       <c r="L85">
-        <v>809</v>
+        <v>1117</v>
       </c>
       <c r="M85">
-        <v>10817.4023758151</v>
+        <v>6011.945084</v>
       </c>
       <c r="N85">
-        <v>1270.2783793613</v>
+        <v>740.52642809999998</v>
       </c>
       <c r="O85">
-        <v>187.73407697677601</v>
+        <v>176.48017189999999</v>
       </c>
       <c r="P85">
-        <v>1.82349181175231</v>
+        <v>1.094586134</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
@@ -5203,10 +5203,10 @@
         <v>57</v>
       </c>
       <c r="F86">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5215,25 +5215,25 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>5185.2453787219201</v>
+        <v>3324.0617309999998</v>
       </c>
       <c r="L86">
-        <v>12862</v>
+        <v>1343</v>
       </c>
       <c r="M86">
-        <v>5262.3554949723903</v>
+        <v>3332.0017240000002</v>
       </c>
       <c r="N86">
-        <v>490.36982064177801</v>
+        <v>293.66156599999999</v>
       </c>
       <c r="O86">
-        <v>1019.56832408905</v>
+        <v>238.08033900000001</v>
       </c>
       <c r="P86">
-        <v>1.7523601055145199</v>
+        <v>1.4870388510000001</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
@@ -5253,13 +5253,13 @@
         <v>57</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G87">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5268,22 +5268,22 @@
         <v>1</v>
       </c>
       <c r="K87">
-        <v>5253.8315537946301</v>
+        <v>5599.8285619999997</v>
       </c>
       <c r="L87">
-        <v>1075</v>
+        <v>1238</v>
       </c>
       <c r="M87">
-        <v>5213.99842923496</v>
+        <v>5561.4821830000001</v>
       </c>
       <c r="N87">
-        <v>475.654042514678</v>
+        <v>437.44760239999999</v>
       </c>
       <c r="O87">
-        <v>266.84461617469702</v>
+        <v>215.06876679999999</v>
       </c>
       <c r="P87">
-        <v>2.2318329811096098</v>
+        <v>1.4033889770000001</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
@@ -5303,37 +5303,37 @@
         <v>57</v>
       </c>
       <c r="F88">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G88">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H88">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>8372.1353083041995</v>
+        <v>11909.725119999999</v>
       </c>
       <c r="L88">
-        <v>16464</v>
+        <v>759</v>
       </c>
       <c r="M88">
-        <v>9401.0025507069295</v>
+        <v>11486.001560000001</v>
       </c>
       <c r="N88">
-        <v>1608.4350315131801</v>
+        <v>1286.566474</v>
       </c>
       <c r="O88">
-        <v>1452.6271469593</v>
+        <v>121.5909808</v>
       </c>
       <c r="P88">
-        <v>1.8446068763732899</v>
+        <v>1.1742010119999999</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
@@ -5353,13 +5353,13 @@
         <v>57</v>
       </c>
       <c r="F89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G89">
         <v>30</v>
       </c>
       <c r="H89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>1</v>
       </c>
       <c r="K89">
-        <v>8451.8908481935996</v>
+        <v>5109.4741819999999</v>
       </c>
       <c r="L89">
-        <v>1021</v>
+        <v>1174</v>
       </c>
       <c r="M89">
-        <v>8455.6677073674</v>
+        <v>5123.1076110000004</v>
       </c>
       <c r="N89">
-        <v>711.41320716420103</v>
+        <v>437.48193350000003</v>
       </c>
       <c r="O89">
-        <v>255.64957690238899</v>
+        <v>216.69089819999999</v>
       </c>
       <c r="P89">
-        <v>2.2113451957702601</v>
+        <v>1.6098639969999999</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -5403,37 +5403,37 @@
         <v>57</v>
       </c>
       <c r="F90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G90">
         <v>30</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
-        <v>16586.839711406101</v>
+        <v>8526.0796709999995</v>
       </c>
       <c r="L90">
-        <v>15650</v>
+        <v>994</v>
       </c>
       <c r="M90">
-        <v>16265.136020087601</v>
+        <v>8639.2238010000001</v>
       </c>
       <c r="N90">
-        <v>2186.0438138982499</v>
+        <v>713.71200180000005</v>
       </c>
       <c r="O90">
-        <v>1392.6400170326201</v>
+        <v>178.7701452</v>
       </c>
       <c r="P90">
-        <v>1.80800580978393</v>
+        <v>1.4900019170000001</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
@@ -5453,7 +5453,7 @@
         <v>57</v>
       </c>
       <c r="F91">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G91">
         <v>30</v>
@@ -5468,22 +5468,22 @@
         <v>1</v>
       </c>
       <c r="K91">
-        <v>16901.269260040899</v>
+        <v>17626.309389999999</v>
       </c>
       <c r="L91">
-        <v>1157</v>
+        <v>1005</v>
       </c>
       <c r="M91">
-        <v>16185.1961586749</v>
+        <v>17208.066940000001</v>
       </c>
       <c r="N91">
-        <v>2145.9031959130498</v>
+        <v>2214.0140729999998</v>
       </c>
       <c r="O91">
-        <v>308.02049708366297</v>
+        <v>183.520206</v>
       </c>
       <c r="P91">
-        <v>2.2800769805908199</v>
+        <v>1.502894878</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
         <v>57</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G92">
         <v>10</v>
@@ -5515,25 +5515,25 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92">
-        <v>1791.8452100290899</v>
+        <v>1855.7621260000001</v>
       </c>
       <c r="L92">
-        <v>17697</v>
+        <v>1012</v>
       </c>
       <c r="M92">
-        <v>1787.5600954199999</v>
+        <v>1797.2845769999999</v>
       </c>
       <c r="N92">
-        <v>197.67698931794601</v>
+        <v>210.8468359</v>
       </c>
       <c r="O92">
-        <v>1191.36750912666</v>
+        <v>222.93166590000001</v>
       </c>
       <c r="P92">
-        <v>1.9065198898315401</v>
+        <v>1.3462810519999999</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
@@ -5553,13 +5553,13 @@
         <v>57</v>
       </c>
       <c r="F93">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G93">
         <v>10</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -5568,22 +5568,22 @@
         <v>1</v>
       </c>
       <c r="K93">
-        <v>1808.63064980486</v>
+        <v>3038.7058740000002</v>
       </c>
       <c r="L93">
-        <v>1229</v>
+        <v>885</v>
       </c>
       <c r="M93">
-        <v>1788.0072897049099</v>
+        <v>3039.34618</v>
       </c>
       <c r="N93">
-        <v>196.68579208860299</v>
+        <v>271.0428331</v>
       </c>
       <c r="O93">
-        <v>364.15235090255698</v>
+        <v>198.5317771</v>
       </c>
       <c r="P93">
-        <v>2.7537641525268501</v>
+        <v>1.263797045</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -5603,37 +5603,37 @@
         <v>57</v>
       </c>
       <c r="F94">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G94">
         <v>10</v>
       </c>
       <c r="H94">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94">
-        <v>2932.5558983659398</v>
+        <v>6048.380862</v>
       </c>
       <c r="L94">
-        <v>12910</v>
+        <v>1364</v>
       </c>
       <c r="M94">
-        <v>3298.79798935801</v>
+        <v>5790.886501</v>
       </c>
       <c r="N94">
-        <v>515.12679200317302</v>
+        <v>731.53852859999995</v>
       </c>
       <c r="O94">
-        <v>943.35504722595203</v>
+        <v>320.77564410000002</v>
       </c>
       <c r="P94">
-        <v>1.96654272079467</v>
+        <v>1.561433077</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
@@ -5653,13 +5653,13 @@
         <v>57</v>
       </c>
       <c r="F95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G95">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H95">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -5668,22 +5668,22 @@
         <v>1</v>
       </c>
       <c r="K95">
-        <v>2978.7101436928101</v>
+        <v>3370.0033899999999</v>
       </c>
       <c r="L95">
-        <v>1218</v>
+        <v>779</v>
       </c>
       <c r="M95">
-        <v>2991.4659810621702</v>
+        <v>3334.5952820000002</v>
       </c>
       <c r="N95">
-        <v>258.70683343857502</v>
+        <v>302.38912210000001</v>
       </c>
       <c r="O95">
-        <v>372.26381802558899</v>
+        <v>179.32365490000001</v>
       </c>
       <c r="P95">
-        <v>2.6813690662384002</v>
+        <v>1.4685490130000001</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
@@ -5703,37 +5703,37 @@
         <v>57</v>
       </c>
       <c r="F96">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96">
-        <v>5928.0989051587203</v>
+        <v>5594.5573530000001</v>
       </c>
       <c r="L96">
-        <v>16914</v>
+        <v>1175</v>
       </c>
       <c r="M96">
-        <v>5781.6474075728202</v>
+        <v>5520.1479609999997</v>
       </c>
       <c r="N96">
-        <v>756.80886143671796</v>
+        <v>429.93875109999999</v>
       </c>
       <c r="O96">
-        <v>1300.1780622005399</v>
+        <v>287.19284770000002</v>
       </c>
       <c r="P96">
-        <v>1.9715368747711099</v>
+        <v>1.7658438679999999</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
@@ -5753,10 +5753,10 @@
         <v>57</v>
       </c>
       <c r="F97">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H97">
         <v>5</v>
@@ -5768,22 +5768,22 @@
         <v>1</v>
       </c>
       <c r="K97">
-        <v>6015.8728255923097</v>
+        <v>11549.47992</v>
       </c>
       <c r="L97">
-        <v>938</v>
+        <v>1985</v>
       </c>
       <c r="M97">
-        <v>5743.1713006833197</v>
+        <v>11085.32346</v>
       </c>
       <c r="N97">
-        <v>744.86555485933798</v>
+        <v>1277.4599209999999</v>
       </c>
       <c r="O97">
-        <v>280.13558912277199</v>
+        <v>570.51058409999996</v>
       </c>
       <c r="P97">
-        <v>2.4289460182189901</v>
+        <v>2.3211839200000002</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
@@ -5803,10 +5803,10 @@
         <v>57</v>
       </c>
       <c r="F98">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G98">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5815,25 +5815,25 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>3309.62257358026</v>
+        <v>5241.1450720000003</v>
       </c>
       <c r="L98">
-        <v>12184</v>
+        <v>1085</v>
       </c>
       <c r="M98">
-        <v>3393.8549398866398</v>
+        <v>5152.0509339999999</v>
       </c>
       <c r="N98">
-        <v>313.12216647808799</v>
+        <v>461.57211009999997</v>
       </c>
       <c r="O98">
-        <v>1009.91411018371</v>
+        <v>277.47575619999998</v>
       </c>
       <c r="P98">
-        <v>2.1751630306243799</v>
+        <v>2.0754029749999998</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
@@ -5853,13 +5853,13 @@
         <v>57</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G99">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -5868,22 +5868,22 @@
         <v>1</v>
       </c>
       <c r="K99">
-        <v>3358.3715941896598</v>
+        <v>8553.6681329999992</v>
       </c>
       <c r="L99">
-        <v>1169</v>
+        <v>878</v>
       </c>
       <c r="M99">
-        <v>3352.0515946208898</v>
+        <v>8578.6640169999991</v>
       </c>
       <c r="N99">
-        <v>297.77308912788402</v>
+        <v>710.75727440000003</v>
       </c>
       <c r="O99">
-        <v>360.67049908638</v>
+        <v>221.03959610000001</v>
       </c>
       <c r="P99">
-        <v>2.8612799644470202</v>
+        <v>1.772026777</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
@@ -5903,37 +5903,37 @@
         <v>57</v>
       </c>
       <c r="F100">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G100">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100">
-        <v>5436.8653412645299</v>
+        <v>17179.464380000001</v>
       </c>
       <c r="L100">
-        <v>10968</v>
+        <v>907</v>
       </c>
       <c r="M100">
-        <v>5923.5398202413498</v>
+        <v>16539.88147</v>
       </c>
       <c r="N100">
-        <v>920.26656370538797</v>
+        <v>2166.141834</v>
       </c>
       <c r="O100">
-        <v>982.57048797607399</v>
+        <v>230.391223</v>
       </c>
       <c r="P100">
-        <v>2.2496480941772399</v>
+        <v>1.7524168490000001</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
@@ -5956,10 +5956,10 @@
         <v>9</v>
       </c>
       <c r="G101">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -5968,22 +5968,22 @@
         <v>1</v>
       </c>
       <c r="K101">
-        <v>5537.28761153906</v>
+        <v>1798.8841159999999</v>
       </c>
       <c r="L101">
-        <v>1207</v>
+        <v>1436</v>
       </c>
       <c r="M101">
-        <v>5464.4693621207298</v>
+        <v>1767.2433559999999</v>
       </c>
       <c r="N101">
-        <v>438.19368183932698</v>
+        <v>193.723446</v>
       </c>
       <c r="O101">
-        <v>381.33075809478697</v>
+        <v>447.7349792</v>
       </c>
       <c r="P101">
-        <v>2.9362928867339999</v>
+        <v>2.1063199039999998</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
@@ -6006,34 +6006,34 @@
         <v>9</v>
       </c>
       <c r="G102">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102">
-        <v>11264.9480283953</v>
+        <v>3014.951157</v>
       </c>
       <c r="L102">
-        <v>19921</v>
+        <v>1071</v>
       </c>
       <c r="M102">
-        <v>11109.180005341101</v>
+        <v>3036.3096310000001</v>
       </c>
       <c r="N102">
-        <v>1390.0883250269901</v>
+        <v>259.07592670000002</v>
       </c>
       <c r="O102">
-        <v>1934.70765376091</v>
+        <v>313.63258910000002</v>
       </c>
       <c r="P102">
-        <v>2.3169271945953298</v>
+        <v>1.7523219590000001</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
@@ -6056,7 +6056,7 @@
         <v>9</v>
       </c>
       <c r="G103">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H103">
         <v>5</v>
@@ -6068,22 +6068,22 @@
         <v>1</v>
       </c>
       <c r="K103">
-        <v>11413.0481908165</v>
+        <v>6118.9464850000004</v>
       </c>
       <c r="L103">
-        <v>971</v>
+        <v>704</v>
       </c>
       <c r="M103">
-        <v>10925.2093506777</v>
+        <v>5826.0640620000004</v>
       </c>
       <c r="N103">
-        <v>1296.9508899253101</v>
+        <v>740.44514949999996</v>
       </c>
       <c r="O103">
-        <v>309.27125811576798</v>
+        <v>195.1451893</v>
       </c>
       <c r="P103">
-        <v>2.7707750797271702</v>
+        <v>1.3786361220000001</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
@@ -6106,7 +6106,7 @@
         <v>9</v>
       </c>
       <c r="G104">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -6115,25 +6115,25 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104">
-        <v>5113.3850173747896</v>
+        <v>3348.8916709999999</v>
       </c>
       <c r="L104">
-        <v>11937</v>
+        <v>735</v>
       </c>
       <c r="M104">
-        <v>6267.2042629471298</v>
+        <v>3330.0246969999998</v>
       </c>
       <c r="N104">
-        <v>1618.84840496484</v>
+        <v>293.83470849999998</v>
       </c>
       <c r="O104">
-        <v>1159.6301047801901</v>
+        <v>219.42978790000001</v>
       </c>
       <c r="P104">
-        <v>2.4441220760345401</v>
+        <v>1.7244880199999999</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
@@ -6156,10 +6156,10 @@
         <v>9</v>
       </c>
       <c r="G105">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -6168,22 +6168,22 @@
         <v>1</v>
       </c>
       <c r="K105">
-        <v>5187.6885767444701</v>
+        <v>5613.1657939999996</v>
       </c>
       <c r="L105">
-        <v>974</v>
+        <v>1296</v>
       </c>
       <c r="M105">
-        <v>5198.8329631338202</v>
+        <v>5550.9584599999998</v>
       </c>
       <c r="N105">
-        <v>462.12494025490298</v>
+        <v>436.23211659999998</v>
       </c>
       <c r="O105">
-        <v>302.55369114875703</v>
+        <v>430.59844399999997</v>
       </c>
       <c r="P105">
-        <v>3.02859306335449</v>
+        <v>2.2877309320000001</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
@@ -6206,34 +6206,34 @@
         <v>9</v>
       </c>
       <c r="G106">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H106">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106">
-        <v>8337.4345626679096</v>
+        <v>11632.71968</v>
       </c>
       <c r="L106">
-        <v>14773</v>
+        <v>853</v>
       </c>
       <c r="M106">
-        <v>9190.0731972064805</v>
+        <v>11168.177030000001</v>
       </c>
       <c r="N106">
-        <v>1481.0578705892599</v>
+        <v>1293.1481220000001</v>
       </c>
       <c r="O106">
-        <v>1572.85480332374</v>
+        <v>261.81256789999998</v>
       </c>
       <c r="P106">
-        <v>2.5422828197479199</v>
+        <v>1.7577407359999999</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
@@ -6259,7 +6259,7 @@
         <v>30</v>
       </c>
       <c r="H107">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -6268,22 +6268,22 @@
         <v>1</v>
       </c>
       <c r="K107">
-        <v>8456.2681571458197</v>
+        <v>5173.1499409999997</v>
       </c>
       <c r="L107">
-        <v>1109</v>
+        <v>895</v>
       </c>
       <c r="M107">
-        <v>8524.7743180048292</v>
+        <v>5143.2219709999999</v>
       </c>
       <c r="N107">
-        <v>725.13436066630504</v>
+        <v>449.41134049999999</v>
       </c>
       <c r="O107">
-        <v>365.41474914550702</v>
+        <v>287.76785489999997</v>
       </c>
       <c r="P107">
-        <v>3.1737060546875</v>
+        <v>2.1873688699999998</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
@@ -6309,31 +6309,31 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108">
-        <v>16697.754669143502</v>
+        <v>8563.0900700000002</v>
       </c>
       <c r="L108">
-        <v>16944</v>
+        <v>1395</v>
       </c>
       <c r="M108">
-        <v>16365.3837057975</v>
+        <v>8630.1234820000009</v>
       </c>
       <c r="N108">
-        <v>2202.78376845509</v>
+        <v>717.61287300000004</v>
       </c>
       <c r="O108">
-        <v>1872.5112519264201</v>
+        <v>499.11554219999999</v>
       </c>
       <c r="P108">
-        <v>2.5232651233672998</v>
+        <v>2.7312598229999998</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
@@ -6368,22 +6368,22 @@
         <v>1</v>
       </c>
       <c r="K109">
-        <v>16990.044716663699</v>
+        <v>17279.528419999999</v>
       </c>
       <c r="L109">
-        <v>1312</v>
+        <v>770</v>
       </c>
       <c r="M109">
-        <v>16258.826599735599</v>
+        <v>16531.84619</v>
       </c>
       <c r="N109">
-        <v>2171.0584891960398</v>
+        <v>2165.7710280000001</v>
       </c>
       <c r="O109">
-        <v>467.48883485793999</v>
+        <v>252.806782</v>
       </c>
       <c r="P109">
-        <v>3.2512390613555899</v>
+        <v>1.993334055</v>
       </c>
     </row>
   </sheetData>
